--- a/capiq_data/in_process_data/IQ92817.xlsx
+++ b/capiq_data/in_process_data/IQ92817.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609FDBC9-EEEA-4DF6-8CBD-8B848826A9DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C517F5BE-BA45-4BFD-828F-7A4FB0EE3F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b9fab668-c8d7-46dc-9596-b7b9097382ea"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"44a262cd-1de0-49cf-8aa2-692570edf410"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
     <t>FQ12011</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ12021</t>
+  </si>
+  <si>
+    <t>FQ22021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40503</v>
+        <v>36940</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>312</v>
+        <v>176.577</v>
       </c>
       <c r="D2">
-        <v>19239</v>
+        <v>8306.3089999999993</v>
       </c>
       <c r="E2">
-        <v>985</v>
+        <v>258.36799999999999</v>
       </c>
       <c r="F2">
-        <v>2482</v>
+        <v>1030.3510000000001</v>
       </c>
       <c r="G2">
-        <v>13558</v>
+        <v>3760.7849999999999</v>
       </c>
       <c r="H2">
-        <v>26043</v>
+        <v>9506.2819999999992</v>
       </c>
       <c r="I2">
-        <v>7205</v>
+        <v>2536.585</v>
       </c>
       <c r="J2">
-        <v>2143</v>
+        <v>827.827</v>
       </c>
       <c r="K2">
-        <v>24</v>
+        <v>15.66</v>
       </c>
       <c r="L2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11502</v>
+        <v>3913.4160000000002</v>
       </c>
       <c r="O2">
-        <v>14336</v>
+        <v>4836.6490000000003</v>
       </c>
       <c r="P2">
-        <v>2167</v>
+        <v>843.48699999999997</v>
       </c>
       <c r="Q2">
-        <v>525</v>
+        <v>-95.278000000000006</v>
       </c>
       <c r="R2">
-        <v>40503</v>
+        <v>36940</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>11707</v>
+        <v>4669.6329999999998</v>
       </c>
       <c r="U2">
-        <v>3739</v>
+        <v>511.65699999999998</v>
       </c>
       <c r="V2">
-        <v>720</v>
+        <v>322.73700000000002</v>
       </c>
       <c r="W2">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-87</v>
+        <v>-39.159999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-3</v>
+        <v>-49.685000000000002</v>
       </c>
       <c r="AA2">
-        <v>312</v>
+        <v>176.577</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40587</v>
+        <v>37024</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>348</v>
+        <v>105.25700000000001</v>
       </c>
       <c r="D3">
-        <v>20875</v>
+        <v>7718.8950000000004</v>
       </c>
       <c r="E3">
-        <v>1116</v>
+        <v>231.322</v>
       </c>
       <c r="F3">
-        <v>2640</v>
+        <v>893.25900000000001</v>
       </c>
       <c r="G3">
-        <v>13138</v>
+        <v>3693.2049999999999</v>
       </c>
       <c r="H3">
-        <v>25716</v>
+        <v>9575.9130000000005</v>
       </c>
       <c r="I3">
-        <v>5970</v>
+        <v>2586.027</v>
       </c>
       <c r="J3">
-        <v>2144</v>
+        <v>828.29399999999998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>92.4</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10746</v>
+        <v>3887.6410000000001</v>
       </c>
       <c r="O3">
-        <v>13592</v>
+        <v>4810.8130000000001</v>
       </c>
       <c r="P3">
-        <v>2145</v>
+        <v>920.69399999999996</v>
       </c>
       <c r="Q3">
-        <v>-384</v>
+        <v>46.918999999999997</v>
       </c>
       <c r="R3">
-        <v>40587</v>
+        <v>37024</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>12124</v>
+        <v>4765.1000000000004</v>
       </c>
       <c r="U3">
-        <v>3355</v>
+        <v>558.57600000000002</v>
       </c>
       <c r="V3">
-        <v>726</v>
+        <v>312.75400000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-416</v>
+        <v>-65.23</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-486</v>
+        <v>20.981000000000002</v>
       </c>
       <c r="AA3">
-        <v>348</v>
+        <v>105.25700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40671</v>
+        <v>37136</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>324</v>
+        <v>190.73400000000001</v>
       </c>
       <c r="D4">
-        <v>20623</v>
+        <v>11134.555</v>
       </c>
       <c r="E4">
-        <v>948</v>
+        <v>324.76799999999997</v>
       </c>
       <c r="F4">
-        <v>2556</v>
+        <v>1351.653</v>
       </c>
       <c r="G4">
-        <v>14069</v>
+        <v>3882.4569999999999</v>
       </c>
       <c r="H4">
-        <v>26974</v>
+        <v>10089.786</v>
       </c>
       <c r="I4">
-        <v>6800</v>
+        <v>2727.6390000000001</v>
       </c>
       <c r="J4">
-        <v>1247</v>
+        <v>859.39300000000003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>194.55199999999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,247 +1058,247 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12494</v>
+        <v>4112.1890000000003</v>
       </c>
       <c r="O4">
-        <v>14433</v>
+        <v>5091.0159999999996</v>
       </c>
       <c r="P4">
-        <v>2148</v>
+        <v>1070.6220000000001</v>
       </c>
       <c r="Q4">
-        <v>727</v>
+        <v>44.009</v>
       </c>
       <c r="R4">
-        <v>40671</v>
+        <v>37136</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="T4">
-        <v>12541</v>
+        <v>4998.7700000000004</v>
       </c>
       <c r="U4">
-        <v>4082</v>
+        <v>602.58500000000004</v>
       </c>
       <c r="V4">
-        <v>811</v>
+        <v>279.00200000000001</v>
       </c>
       <c r="W4">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>241</v>
+        <v>180.73099999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-100</v>
+        <v>-0.129</v>
       </c>
       <c r="AA4">
-        <v>324</v>
+        <v>190.73400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40783</v>
+        <v>37220</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>478</v>
+        <v>129.65600000000001</v>
       </c>
       <c r="D5">
-        <v>28178</v>
+        <v>8466.5529999999999</v>
       </c>
       <c r="E5">
-        <v>804</v>
+        <v>377.29199999999997</v>
       </c>
       <c r="F5">
-        <v>3498</v>
+        <v>1032.1559999999999</v>
       </c>
       <c r="G5">
-        <v>13706</v>
+        <v>4688.7110000000002</v>
       </c>
       <c r="H5">
-        <v>26761</v>
+        <v>11108.813</v>
       </c>
       <c r="I5">
-        <v>6544</v>
+        <v>3391.9850000000001</v>
       </c>
       <c r="J5">
-        <v>1253</v>
+        <v>850.66</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>274.041</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-6.1920000000000002</v>
       </c>
       <c r="N5">
-        <v>12050</v>
+        <v>5010.4799999999996</v>
       </c>
       <c r="O5">
-        <v>14188</v>
+        <v>5989.2929999999997</v>
       </c>
       <c r="P5">
-        <v>2153</v>
+        <v>1124.701</v>
       </c>
       <c r="Q5">
-        <v>-73</v>
+        <v>221.886</v>
       </c>
       <c r="R5">
-        <v>40783</v>
+        <v>37220</v>
       </c>
       <c r="S5">
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>12573</v>
+        <v>5119.5200000000004</v>
       </c>
       <c r="U5">
-        <v>4009</v>
+        <v>824.471</v>
       </c>
       <c r="V5">
-        <v>941</v>
+        <v>224.732</v>
       </c>
       <c r="W5">
-        <v>-210</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-1015</v>
+        <v>303.23500000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>529</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="AA5">
-        <v>478</v>
+        <v>129.65600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40867</v>
+        <v>37304</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>320</v>
+        <v>192.55600000000001</v>
       </c>
       <c r="D6">
-        <v>21628</v>
+        <v>9382.8520000000008</v>
       </c>
       <c r="E6">
-        <v>982</v>
+        <v>323.77800000000002</v>
       </c>
       <c r="F6">
-        <v>2697</v>
+        <v>1170.8219999999999</v>
       </c>
       <c r="G6">
-        <v>14993</v>
+        <v>4312.7560000000003</v>
       </c>
       <c r="H6">
-        <v>28004</v>
+        <v>10889.348</v>
       </c>
       <c r="I6">
-        <v>7576</v>
+        <v>3051.5329999999999</v>
       </c>
       <c r="J6">
-        <v>1330</v>
+        <v>853.62900000000002</v>
       </c>
       <c r="K6">
-        <v>34</v>
+        <v>142.29400000000001</v>
       </c>
       <c r="L6">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13311</v>
+        <v>4558.4740000000002</v>
       </c>
       <c r="O6">
-        <v>15557</v>
+        <v>5537.1790000000001</v>
       </c>
       <c r="P6">
-        <v>2264</v>
+        <v>995.923</v>
       </c>
       <c r="Q6">
-        <v>310</v>
+        <v>-49.92</v>
       </c>
       <c r="R6">
-        <v>40867</v>
+        <v>37304</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>12447</v>
+        <v>5352.1689999999999</v>
       </c>
       <c r="U6">
-        <v>4319</v>
+        <v>774.55100000000004</v>
       </c>
       <c r="V6">
-        <v>664</v>
+        <v>347.40499999999997</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>67</v>
+        <v>-166.51900000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-11</v>
+        <v>-1.022</v>
       </c>
       <c r="AA6">
-        <v>320</v>
+        <v>192.55600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40951</v>
+        <v>37388</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>394</v>
+        <v>130.37</v>
       </c>
       <c r="D7">
-        <v>22967</v>
+        <v>8616.7469999999994</v>
       </c>
       <c r="E7">
-        <v>1092</v>
+        <v>289.16699999999997</v>
       </c>
       <c r="F7">
-        <v>2828</v>
+        <v>1033.4960000000001</v>
       </c>
       <c r="G7">
-        <v>14360</v>
+        <v>4385.5519999999997</v>
       </c>
       <c r="H7">
-        <v>27511</v>
+        <v>11147.517</v>
       </c>
       <c r="I7">
-        <v>6334</v>
+        <v>2840.6770000000001</v>
       </c>
       <c r="J7">
-        <v>1380</v>
+        <v>1167.5060000000001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>54.804000000000002</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12409</v>
+        <v>4328.5770000000002</v>
       </c>
       <c r="O7">
-        <v>14692</v>
+        <v>5620.598</v>
       </c>
       <c r="P7">
-        <v>2280</v>
+        <v>1222.31</v>
       </c>
       <c r="Q7">
-        <v>70</v>
+        <v>66.563000000000002</v>
       </c>
       <c r="R7">
-        <v>40951</v>
+        <v>37388</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>12819</v>
+        <v>5526.9189999999999</v>
       </c>
       <c r="U7">
-        <v>4389</v>
+        <v>841.11400000000003</v>
       </c>
       <c r="V7">
-        <v>580</v>
+        <v>278.17899999999997</v>
       </c>
       <c r="W7">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-459</v>
+        <v>17.212</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>200</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA7">
-        <v>394</v>
+        <v>130.37</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41035</v>
+        <v>37500</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>386</v>
+        <v>247.40100000000001</v>
       </c>
       <c r="D8">
-        <v>22324</v>
+        <v>12296.347</v>
       </c>
       <c r="E8">
-        <v>1018</v>
+        <v>474.86099999999999</v>
       </c>
       <c r="F8">
-        <v>2781</v>
+        <v>1542.904</v>
       </c>
       <c r="G8">
-        <v>14591</v>
+        <v>4630.5389999999998</v>
       </c>
       <c r="H8">
-        <v>27836</v>
+        <v>11620.263000000001</v>
       </c>
       <c r="I8">
-        <v>7302</v>
+        <v>2884.2689999999998</v>
       </c>
       <c r="J8">
-        <v>1373</v>
+        <v>1210.6379999999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>103.774</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,247 +1390,247 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12366</v>
+        <v>4449.7330000000002</v>
       </c>
       <c r="O8">
-        <v>14653</v>
+        <v>5806.2960000000003</v>
       </c>
       <c r="P8">
-        <v>1373</v>
+        <v>1321.9960000000001</v>
       </c>
       <c r="Q8">
-        <v>402</v>
+        <v>-35.595999999999997</v>
       </c>
       <c r="R8">
-        <v>41035</v>
+        <v>37500</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="T8">
-        <v>13183</v>
+        <v>5813.9669999999996</v>
       </c>
       <c r="U8">
-        <v>4791</v>
+        <v>805.51800000000003</v>
       </c>
       <c r="V8">
-        <v>1083</v>
+        <v>167.92699999999999</v>
       </c>
       <c r="W8">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-619</v>
+        <v>63.9</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>204</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AA8">
-        <v>386</v>
+        <v>247.40100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41154</v>
+        <v>37584</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>609</v>
+        <v>145.72900000000001</v>
       </c>
       <c r="D9">
-        <v>32218</v>
+        <v>9198.5849999999991</v>
       </c>
       <c r="E9">
-        <v>875</v>
+        <v>459.892</v>
       </c>
       <c r="F9">
-        <v>4008</v>
+        <v>1149.6880000000001</v>
       </c>
       <c r="G9">
-        <v>13526</v>
+        <v>5069.6400000000003</v>
       </c>
       <c r="H9">
-        <v>27140</v>
+        <v>12235.455</v>
       </c>
       <c r="I9">
-        <v>7303</v>
+        <v>3241.3580000000002</v>
       </c>
       <c r="J9">
-        <v>1381</v>
+        <v>1235.431</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>75.623999999999995</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-144.17400000000001</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-2.476</v>
       </c>
       <c r="N9">
-        <v>12260</v>
+        <v>4891.7359999999999</v>
       </c>
       <c r="O9">
-        <v>14622</v>
+        <v>6278.84</v>
       </c>
       <c r="P9">
-        <v>1381</v>
+        <v>1311.0550000000001</v>
       </c>
       <c r="Q9">
-        <v>-1263</v>
+        <v>-92.664000000000001</v>
       </c>
       <c r="R9">
-        <v>41154</v>
+        <v>37584</v>
       </c>
       <c r="S9">
-        <v>96000</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>12518</v>
+        <v>5956.6149999999998</v>
       </c>
       <c r="U9">
-        <v>3528</v>
+        <v>712.85400000000004</v>
       </c>
       <c r="V9">
-        <v>730</v>
+        <v>300.363</v>
       </c>
       <c r="W9">
-        <v>-237</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-1270</v>
+        <v>-114.77</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>609</v>
+        <v>145.72900000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41238</v>
+        <v>37668</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>416</v>
+        <v>182.065</v>
       </c>
       <c r="D10">
-        <v>23715</v>
+        <v>10114.166999999999</v>
       </c>
       <c r="E10">
-        <v>1175</v>
+        <v>453.11399999999998</v>
       </c>
       <c r="F10">
-        <v>2989</v>
+        <v>1273.7560000000001</v>
       </c>
       <c r="G10">
-        <v>15405</v>
+        <v>5060.6499999999996</v>
       </c>
       <c r="H10">
-        <v>29323</v>
+        <v>12342.843000000001</v>
       </c>
       <c r="I10">
-        <v>8825</v>
+        <v>2869.819</v>
       </c>
       <c r="J10">
-        <v>1366</v>
+        <v>1253.057</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>102.995</v>
       </c>
       <c r="L10">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14135</v>
+        <v>4752.6610000000001</v>
       </c>
       <c r="O10">
-        <v>16491</v>
+        <v>6170.9189999999999</v>
       </c>
       <c r="P10">
-        <v>1379</v>
+        <v>1356.0519999999999</v>
       </c>
       <c r="Q10">
-        <v>369</v>
+        <v>456.14800000000002</v>
       </c>
       <c r="R10">
-        <v>41238</v>
+        <v>37668</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>12832</v>
+        <v>6171.924</v>
       </c>
       <c r="U10">
-        <v>3897</v>
+        <v>1169.002</v>
       </c>
       <c r="V10">
-        <v>1102</v>
+        <v>606.15</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>121</v>
+        <v>9.1910000000000007</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-419</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>416</v>
+        <v>182.065</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41322</v>
+        <v>37752</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>547</v>
+        <v>153.78</v>
       </c>
       <c r="D11">
-        <v>24871</v>
+        <v>9543.0709999999999</v>
       </c>
       <c r="E11">
-        <v>1300</v>
+        <v>421.97199999999998</v>
       </c>
       <c r="F11">
-        <v>3105</v>
+        <v>1184.748</v>
       </c>
       <c r="G11">
-        <v>15110</v>
+        <v>5199.8459999999995</v>
       </c>
       <c r="H11">
-        <v>29089</v>
+        <v>12598.831</v>
       </c>
       <c r="I11">
-        <v>7441</v>
+        <v>2885.4250000000002</v>
       </c>
       <c r="J11">
-        <v>4806</v>
+        <v>1297.385</v>
       </c>
       <c r="K11">
-        <v>64</v>
+        <v>92.268000000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13045</v>
+        <v>4716.4189999999999</v>
       </c>
       <c r="O11">
-        <v>18806</v>
+        <v>6188.7</v>
       </c>
       <c r="P11">
-        <v>4871</v>
+        <v>1389.653</v>
       </c>
       <c r="Q11">
-        <v>516</v>
+        <v>120.47</v>
       </c>
       <c r="R11">
-        <v>41322</v>
+        <v>37752</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>10283</v>
+        <v>6410.1310000000003</v>
       </c>
       <c r="U11">
-        <v>4413</v>
+        <v>1289.472</v>
       </c>
       <c r="V11">
-        <v>423</v>
+        <v>169.64599999999999</v>
       </c>
       <c r="W11">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>114</v>
+        <v>83.808999999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>547</v>
+        <v>153.78</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41406</v>
+        <v>37864</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>459</v>
+        <v>239.42599999999999</v>
       </c>
       <c r="D12">
-        <v>24083</v>
+        <v>13689.728999999999</v>
       </c>
       <c r="E12">
-        <v>1134</v>
+        <v>556.09</v>
       </c>
       <c r="F12">
-        <v>3045</v>
+        <v>1701.9770000000001</v>
       </c>
       <c r="G12">
-        <v>15863</v>
+        <v>5711.5379999999996</v>
       </c>
       <c r="H12">
-        <v>30006</v>
+        <v>13191.688</v>
       </c>
       <c r="I12">
-        <v>7788</v>
+        <v>3131.32</v>
       </c>
       <c r="J12">
-        <v>4887</v>
+        <v>1289.6489999999999</v>
       </c>
       <c r="K12">
-        <v>54</v>
+        <v>47.420999999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,164 +1722,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13509</v>
+        <v>5011.107</v>
       </c>
       <c r="O12">
-        <v>19359</v>
+        <v>6510.5910000000003</v>
       </c>
       <c r="P12">
-        <v>4941</v>
+        <v>1344.1210000000001</v>
       </c>
       <c r="Q12">
-        <v>1035</v>
+        <v>255.96700000000001</v>
       </c>
       <c r="R12">
-        <v>41406</v>
+        <v>37864</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>61800</v>
       </c>
       <c r="T12">
-        <v>10647</v>
+        <v>6681.0969999999998</v>
       </c>
       <c r="U12">
-        <v>5448</v>
+        <v>1545.4390000000001</v>
       </c>
       <c r="V12">
-        <v>1349</v>
+        <v>431.04899999999998</v>
       </c>
       <c r="W12">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-19</v>
+        <v>20.341999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>459</v>
+        <v>239.42599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41518</v>
+        <v>37948</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>617</v>
+        <v>160.17500000000001</v>
       </c>
       <c r="D13">
-        <v>32487</v>
+        <v>10521.477999999999</v>
       </c>
       <c r="E13">
-        <v>921</v>
+        <v>362.483</v>
       </c>
       <c r="F13">
-        <v>4069</v>
+        <v>1301.356</v>
       </c>
       <c r="G13">
-        <v>15840</v>
+        <v>6617.83</v>
       </c>
       <c r="H13">
-        <v>30283</v>
+        <v>14326.29</v>
       </c>
       <c r="I13">
-        <v>7872</v>
+        <v>3886.4929999999999</v>
       </c>
       <c r="J13">
-        <v>4998</v>
+        <v>1303.2070000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.062999999999999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-45.978999999999999</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-2.0409999999999999</v>
       </c>
       <c r="N13">
-        <v>13257</v>
+        <v>5949.7860000000001</v>
       </c>
       <c r="O13">
-        <v>19271</v>
+        <v>7461.1109999999999</v>
       </c>
       <c r="P13">
-        <v>4998</v>
+        <v>1320.27</v>
       </c>
       <c r="Q13">
-        <v>-804</v>
+        <v>256.08100000000002</v>
       </c>
       <c r="R13">
-        <v>41518</v>
+        <v>37948</v>
       </c>
       <c r="S13">
-        <v>103000</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>11012</v>
+        <v>6865.1790000000001</v>
       </c>
       <c r="U13">
-        <v>4644</v>
+        <v>1801.52</v>
       </c>
       <c r="V13">
-        <v>563</v>
+        <v>703.28099999999995</v>
       </c>
       <c r="W13">
-        <v>-271</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-172</v>
+        <v>-41.481000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-440</v>
+        <v>-110.18600000000001</v>
       </c>
       <c r="AA13">
-        <v>617</v>
+        <v>160.17500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41602</v>
+        <v>38032</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>425</v>
+        <v>226.792</v>
       </c>
       <c r="D14">
-        <v>25017</v>
+        <v>11548.974</v>
       </c>
       <c r="E14">
-        <v>1145</v>
+        <v>308.86399999999998</v>
       </c>
       <c r="F14">
-        <v>3193</v>
+        <v>1446.9970000000001</v>
       </c>
       <c r="G14">
-        <v>17473</v>
+        <v>6499.5950000000003</v>
       </c>
       <c r="H14">
-        <v>32319</v>
+        <v>14277.468000000001</v>
       </c>
       <c r="I14">
-        <v>9199</v>
+        <v>3267.942</v>
       </c>
       <c r="J14">
-        <v>4987</v>
+        <v>1313.1849999999999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>43.615000000000002</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14933</v>
+        <v>5587.47</v>
       </c>
       <c r="O14">
-        <v>20910</v>
+        <v>7104.26</v>
       </c>
       <c r="P14">
-        <v>4987</v>
+        <v>1356.8</v>
       </c>
       <c r="Q14">
-        <v>55</v>
+        <v>374.41699999999997</v>
       </c>
       <c r="R14">
-        <v>41602</v>
+        <v>38032</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>11409</v>
+        <v>7173.2079999999996</v>
       </c>
       <c r="U14">
-        <v>4699</v>
+        <v>2175.9369999999999</v>
       </c>
       <c r="V14">
-        <v>939</v>
+        <v>569.40300000000002</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-71</v>
+        <v>-90.488</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-265</v>
+        <v>-1.5229999999999999</v>
       </c>
       <c r="AA14">
-        <v>425</v>
+        <v>226.792</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41686</v>
+        <v>38116</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>463</v>
+        <v>198.65799999999999</v>
       </c>
       <c r="D15">
-        <v>26306</v>
+        <v>10897.239</v>
       </c>
       <c r="E15">
-        <v>1244</v>
+        <v>255.066</v>
       </c>
       <c r="F15">
-        <v>3263</v>
+        <v>1356.9269999999999</v>
       </c>
       <c r="G15">
-        <v>16634</v>
+        <v>6925.4089999999997</v>
       </c>
       <c r="H15">
-        <v>31566</v>
+        <v>14615.281999999999</v>
       </c>
       <c r="I15">
-        <v>7707</v>
+        <v>3557.14</v>
       </c>
       <c r="J15">
-        <v>4985</v>
+        <v>1292.2560000000001</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.971</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13884</v>
+        <v>5844.3950000000004</v>
       </c>
       <c r="O15">
-        <v>19857</v>
+        <v>7341.26</v>
       </c>
       <c r="P15">
-        <v>4985</v>
+        <v>1310.2270000000001</v>
       </c>
       <c r="Q15">
-        <v>431</v>
+        <v>316.99099999999999</v>
       </c>
       <c r="R15">
-        <v>41686</v>
+        <v>38116</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>11709</v>
+        <v>7274.0219999999999</v>
       </c>
       <c r="U15">
-        <v>5130</v>
+        <v>2492.9279999999999</v>
       </c>
       <c r="V15">
-        <v>713</v>
+        <v>345.96499999999997</v>
       </c>
       <c r="W15">
-        <v>-137</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-153</v>
+        <v>261.34300000000002</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>396</v>
+        <v>-183.26599999999999</v>
       </c>
       <c r="AA15">
-        <v>463</v>
+        <v>198.65799999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41770</v>
+        <v>38228</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>473</v>
+        <v>296.76799999999997</v>
       </c>
       <c r="D16">
-        <v>25794</v>
+        <v>15139.300999999999</v>
       </c>
       <c r="E16">
-        <v>1115</v>
+        <v>335.17500000000001</v>
       </c>
       <c r="F16">
-        <v>3240</v>
+        <v>1909.6959999999999</v>
       </c>
       <c r="G16">
-        <v>17533</v>
+        <v>7269.0990000000002</v>
       </c>
       <c r="H16">
-        <v>32701</v>
+        <v>15092.548000000001</v>
       </c>
       <c r="I16">
-        <v>8361</v>
+        <v>3600.2</v>
       </c>
       <c r="J16">
-        <v>4985</v>
+        <v>993.74599999999998</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.594999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,247 +2054,247 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14687</v>
+        <v>6170.55</v>
       </c>
       <c r="O16">
-        <v>20680</v>
+        <v>7408.4719999999998</v>
       </c>
       <c r="P16">
-        <v>4985</v>
+        <v>1320.9349999999999</v>
       </c>
       <c r="Q16">
-        <v>606</v>
+        <v>330.20699999999999</v>
       </c>
       <c r="R16">
-        <v>41770</v>
+        <v>38228</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>58300</v>
       </c>
       <c r="T16">
-        <v>12021</v>
+        <v>7684.076</v>
       </c>
       <c r="U16">
-        <v>5736</v>
+        <v>2823.1350000000002</v>
       </c>
       <c r="V16">
-        <v>1490</v>
+        <v>480.13400000000001</v>
       </c>
       <c r="W16">
-        <v>-136</v>
+        <v>-92.137</v>
       </c>
       <c r="X16">
-        <v>-318</v>
+        <v>80.194999999999993</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-187</v>
+        <v>-8.9700000000000006</v>
       </c>
       <c r="AA16">
-        <v>473</v>
+        <v>296.76799999999997</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38312</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>697</v>
+        <v>193.15299999999999</v>
       </c>
       <c r="D17">
-        <v>35523</v>
+        <v>11578.003000000001</v>
       </c>
       <c r="E17">
-        <v>1044</v>
+        <v>373.928</v>
       </c>
       <c r="F17">
-        <v>4486</v>
+        <v>1445.5160000000001</v>
       </c>
       <c r="G17">
-        <v>17588</v>
+        <v>8387.0210000000006</v>
       </c>
       <c r="H17">
-        <v>33024</v>
+        <v>16410.317999999999</v>
       </c>
       <c r="I17">
-        <v>8491</v>
+        <v>4468.8990000000003</v>
       </c>
       <c r="J17">
-        <v>5093</v>
+        <v>858.14400000000001</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.7240000000000002</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-12.736000000000001</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-0.99399999999999999</v>
       </c>
       <c r="N17">
-        <v>14412</v>
+        <v>7036.3850000000002</v>
       </c>
       <c r="O17">
-        <v>20509</v>
+        <v>8140.5870000000004</v>
       </c>
       <c r="P17">
-        <v>5093</v>
+        <v>1174.615</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>61.863999999999997</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38312</v>
       </c>
       <c r="S17">
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>12515</v>
+        <v>8269.7309999999998</v>
       </c>
       <c r="U17">
-        <v>5738</v>
+        <v>2884.9989999999998</v>
       </c>
       <c r="V17">
-        <v>842</v>
+        <v>44.533999999999999</v>
       </c>
       <c r="W17">
-        <v>-311</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-244</v>
+        <v>221.54499999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-41</v>
+        <v>-23.667999999999999</v>
       </c>
       <c r="AA17">
-        <v>697</v>
+        <v>193.15299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41966</v>
+        <v>38396</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>496</v>
+        <v>305.452</v>
       </c>
       <c r="D18">
-        <v>26866</v>
+        <v>12658.076999999999</v>
       </c>
       <c r="E18">
-        <v>1248</v>
+        <v>349.16899999999998</v>
       </c>
       <c r="F18">
-        <v>3481</v>
+        <v>1602.0129999999999</v>
       </c>
       <c r="G18">
-        <v>19156</v>
+        <v>8363.116</v>
       </c>
       <c r="H18">
-        <v>34613</v>
+        <v>16449.066999999999</v>
       </c>
       <c r="I18">
-        <v>9783</v>
+        <v>3998.5610000000001</v>
       </c>
       <c r="J18">
-        <v>5034</v>
+        <v>732.58900000000006</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>39.292000000000002</v>
       </c>
       <c r="L18">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16019</v>
+        <v>6774.3810000000003</v>
       </c>
       <c r="O18">
-        <v>22043</v>
+        <v>7773.6049999999996</v>
       </c>
       <c r="P18">
-        <v>5034</v>
+        <v>1076.048</v>
       </c>
       <c r="Q18">
-        <v>231</v>
+        <v>158.33600000000001</v>
       </c>
       <c r="R18">
-        <v>41966</v>
+        <v>38396</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>12570</v>
+        <v>8675.4619999999995</v>
       </c>
       <c r="U18">
-        <v>5969</v>
+        <v>3043.335</v>
       </c>
       <c r="V18">
-        <v>1128</v>
+        <v>719.74</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-47.094000000000001</v>
       </c>
       <c r="X18">
-        <v>-108</v>
+        <v>47.884</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-84</v>
+        <v>-401.35500000000002</v>
       </c>
       <c r="AA18">
-        <v>496</v>
+        <v>305.452</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42050</v>
+        <v>38480</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>598</v>
+        <v>209.78800000000001</v>
       </c>
       <c r="D19">
-        <v>27454</v>
+        <v>11996.9</v>
       </c>
       <c r="E19">
-        <v>1287</v>
+        <v>297.68400000000003</v>
       </c>
       <c r="F19">
-        <v>3557</v>
+        <v>1493.239</v>
       </c>
       <c r="G19">
-        <v>18058</v>
+        <v>8569.366</v>
       </c>
       <c r="H19">
-        <v>33600</v>
+        <v>16782.419000000002</v>
       </c>
       <c r="I19">
-        <v>8302</v>
+        <v>4134.0640000000003</v>
       </c>
       <c r="J19">
-        <v>3830</v>
+        <v>715.44799999999998</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>46.441000000000003</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18249</v>
+        <v>6871.3450000000003</v>
       </c>
       <c r="O19">
-        <v>23175</v>
+        <v>7862.0590000000002</v>
       </c>
       <c r="P19">
-        <v>5030</v>
+        <v>1065.7829999999999</v>
       </c>
       <c r="Q19">
-        <v>-103</v>
+        <v>-318.21899999999999</v>
       </c>
       <c r="R19">
-        <v>42050</v>
+        <v>38480</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>10425</v>
+        <v>8920.36</v>
       </c>
       <c r="U19">
-        <v>5866</v>
+        <v>2725.116</v>
       </c>
       <c r="V19">
-        <v>900</v>
+        <v>489.30900000000003</v>
       </c>
       <c r="W19">
-        <v>-156</v>
+        <v>-47.732999999999997</v>
       </c>
       <c r="X19">
-        <v>-265</v>
+        <v>-8.4689999999999994</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>64</v>
+        <v>-597.40599999999995</v>
       </c>
       <c r="AA19">
-        <v>598</v>
+        <v>209.78800000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42134</v>
+        <v>38592</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>516</v>
+        <v>354.69900000000001</v>
       </c>
       <c r="D20">
-        <v>26101</v>
+        <v>16719.245999999999</v>
       </c>
       <c r="E20">
-        <v>1195</v>
+        <v>529.15</v>
       </c>
       <c r="F20">
-        <v>3414</v>
+        <v>2064.4969999999998</v>
       </c>
       <c r="G20">
-        <v>17634</v>
+        <v>8238.0010000000002</v>
       </c>
       <c r="H20">
-        <v>33491</v>
+        <v>16665.205000000002</v>
       </c>
       <c r="I20">
-        <v>8895</v>
+        <v>4224.6760000000004</v>
       </c>
       <c r="J20">
-        <v>4826</v>
+        <v>710.67499999999995</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>54.356000000000002</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,247 +2386,247 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16736</v>
+        <v>6760.5370000000003</v>
       </c>
       <c r="O20">
-        <v>22677</v>
+        <v>7725.482</v>
       </c>
       <c r="P20">
-        <v>6026</v>
+        <v>768.25599999999997</v>
       </c>
       <c r="Q20">
-        <v>-803</v>
+        <v>-662.53099999999995</v>
       </c>
       <c r="R20">
-        <v>42134</v>
+        <v>38592</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>60500</v>
       </c>
       <c r="T20">
-        <v>10814</v>
+        <v>8939.723</v>
       </c>
       <c r="U20">
-        <v>5063</v>
+        <v>2062.585</v>
       </c>
       <c r="V20">
-        <v>1229</v>
+        <v>522.37800000000004</v>
       </c>
       <c r="W20">
-        <v>-157</v>
+        <v>-109.74</v>
       </c>
       <c r="X20">
-        <v>-1470</v>
+        <v>-779.61099999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-153</v>
+        <v>-65.111999999999995</v>
       </c>
       <c r="AA20">
-        <v>516</v>
+        <v>354.69900000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42246</v>
+        <v>38676</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>767</v>
+        <v>215.81800000000001</v>
       </c>
       <c r="D21">
-        <v>35778</v>
+        <v>12933.346</v>
       </c>
       <c r="E21">
-        <v>1105</v>
+        <v>405.49700000000001</v>
       </c>
       <c r="F21">
-        <v>4682</v>
+        <v>1603.175</v>
       </c>
       <c r="G21">
-        <v>16779</v>
+        <v>8842.1849999999995</v>
       </c>
       <c r="H21">
-        <v>33017</v>
+        <v>17382.22</v>
       </c>
       <c r="I21">
-        <v>9011</v>
+        <v>4859.49</v>
       </c>
       <c r="J21">
-        <v>4852</v>
+        <v>546.82000000000005</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>61.712000000000003</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.98199999999999998</v>
       </c>
       <c r="N21">
-        <v>16539</v>
+        <v>7454.8310000000001</v>
       </c>
       <c r="O21">
-        <v>22174</v>
+        <v>8255.6569999999992</v>
       </c>
       <c r="P21">
-        <v>6135</v>
+        <v>613.82600000000002</v>
       </c>
       <c r="Q21">
-        <v>-262</v>
+        <v>-53.704999999999998</v>
       </c>
       <c r="R21">
-        <v>42246</v>
+        <v>38676</v>
       </c>
       <c r="S21">
-        <v>117000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>10843</v>
+        <v>9126.5630000000001</v>
       </c>
       <c r="U21">
-        <v>4801</v>
+        <v>2008.88</v>
       </c>
       <c r="V21">
-        <v>1028</v>
+        <v>133.57300000000001</v>
       </c>
       <c r="W21">
-        <v>-351</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-481</v>
+        <v>-38.268000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>106</v>
+        <v>116.458</v>
       </c>
       <c r="AA21">
-        <v>767</v>
+        <v>215.81800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42330</v>
+        <v>38760</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>480</v>
+        <v>296.20299999999997</v>
       </c>
       <c r="D22">
-        <v>27220</v>
+        <v>14059.012000000001</v>
       </c>
       <c r="E22">
-        <v>1359</v>
+        <v>413.404</v>
       </c>
       <c r="F22">
-        <v>3599</v>
+        <v>1755.162</v>
       </c>
       <c r="G22">
-        <v>18858</v>
+        <v>8452.1299999999992</v>
       </c>
       <c r="H22">
-        <v>35451</v>
+        <v>17175.565999999999</v>
       </c>
       <c r="I22">
-        <v>10378</v>
+        <v>4394.3379999999997</v>
       </c>
       <c r="J22">
-        <v>4845</v>
+        <v>536.99800000000005</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>61.838000000000001</v>
       </c>
       <c r="L22">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18293</v>
+        <v>7250.0209999999997</v>
       </c>
       <c r="O22">
-        <v>24371</v>
+        <v>8048.3680000000004</v>
       </c>
       <c r="P22">
-        <v>6126</v>
+        <v>603.43799999999999</v>
       </c>
       <c r="Q22">
-        <v>253</v>
+        <v>230.90600000000001</v>
       </c>
       <c r="R22">
-        <v>42330</v>
+        <v>38760</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>11080</v>
+        <v>9127.1980000000003</v>
       </c>
       <c r="U22">
-        <v>5054</v>
+        <v>2239.7860000000001</v>
       </c>
       <c r="V22">
-        <v>811</v>
+        <v>823.30899999999997</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-54.756</v>
       </c>
       <c r="X22">
-        <v>-224</v>
+        <v>-381.57</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>387</v>
+        <v>9.61</v>
       </c>
       <c r="AA22">
-        <v>480</v>
+        <v>296.20299999999997</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42414</v>
+        <v>38844</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>546</v>
+        <v>235.595</v>
       </c>
       <c r="D23">
-        <v>28170</v>
+        <v>13283.647999999999</v>
       </c>
       <c r="E23">
-        <v>1453</v>
+        <v>354.18900000000002</v>
       </c>
       <c r="F23">
-        <v>3701</v>
+        <v>1648.596</v>
       </c>
       <c r="G23">
-        <v>15529</v>
+        <v>8347.1329999999998</v>
       </c>
       <c r="H23">
-        <v>32388</v>
+        <v>17284.327000000001</v>
       </c>
       <c r="I23">
-        <v>8222</v>
+        <v>4439.2969999999996</v>
       </c>
       <c r="J23">
-        <v>4886</v>
+        <v>229.93100000000001</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>60.064999999999998</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15433</v>
+        <v>7492.3059999999996</v>
       </c>
       <c r="O23">
-        <v>21154</v>
+        <v>7983.4840000000004</v>
       </c>
       <c r="P23">
-        <v>4975</v>
+        <v>599.04</v>
       </c>
       <c r="Q23">
-        <v>-1421</v>
+        <v>-229.33799999999999</v>
       </c>
       <c r="R23">
-        <v>42414</v>
+        <v>38844</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>11234</v>
+        <v>9300.8430000000008</v>
       </c>
       <c r="U23">
-        <v>3633</v>
+        <v>2010.4480000000001</v>
       </c>
       <c r="V23">
-        <v>791</v>
+        <v>271.74700000000001</v>
       </c>
       <c r="W23">
-        <v>-176</v>
+        <v>-54.095999999999997</v>
       </c>
       <c r="X23">
-        <v>-1563</v>
+        <v>-233.28100000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-12.359</v>
       </c>
       <c r="AA23">
-        <v>546</v>
+        <v>235.595</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42498</v>
+        <v>38963</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>545</v>
+        <v>355.59899999999999</v>
       </c>
       <c r="D24">
-        <v>26769</v>
+        <v>19875.221000000001</v>
       </c>
       <c r="E24">
-        <v>1300</v>
+        <v>565.37300000000005</v>
       </c>
       <c r="F24">
-        <v>3607</v>
+        <v>2398.797</v>
       </c>
       <c r="G24">
-        <v>16542</v>
+        <v>8232.0820000000003</v>
       </c>
       <c r="H24">
-        <v>33873</v>
+        <v>17495.07</v>
       </c>
       <c r="I24">
-        <v>8828</v>
+        <v>4581.3950000000004</v>
       </c>
       <c r="J24">
-        <v>3921</v>
+        <v>215.369</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>41.384999999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,247 +2718,247 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16999</v>
+        <v>7819.1909999999998</v>
       </c>
       <c r="O24">
-        <v>22125</v>
+        <v>8288.2729999999992</v>
       </c>
       <c r="P24">
-        <v>5114</v>
+        <v>565.27700000000004</v>
       </c>
       <c r="Q24">
-        <v>1251</v>
+        <v>-499.50900000000001</v>
       </c>
       <c r="R24">
-        <v>42498</v>
+        <v>38963</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="T24">
-        <v>11748</v>
+        <v>9206.7970000000005</v>
       </c>
       <c r="U24">
-        <v>4884</v>
+        <v>1510.9390000000001</v>
       </c>
       <c r="V24">
-        <v>1859</v>
+        <v>602.59500000000003</v>
       </c>
       <c r="W24">
-        <v>-176</v>
+        <v>-121.35899999999999</v>
       </c>
       <c r="X24">
-        <v>-301</v>
+        <v>-580.10799999999995</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>94</v>
+        <v>-39.273000000000003</v>
       </c>
       <c r="AA24">
-        <v>545</v>
+        <v>355.59899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42610</v>
+        <v>39047</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>779</v>
+        <v>236.886</v>
       </c>
       <c r="D25">
-        <v>36560</v>
+        <v>14151.624</v>
       </c>
       <c r="E25">
-        <v>1252</v>
+        <v>607.03200000000004</v>
       </c>
       <c r="F25">
-        <v>4911</v>
+        <v>1762.6659999999999</v>
       </c>
       <c r="G25">
-        <v>15218</v>
+        <v>8864.259</v>
       </c>
       <c r="H25">
-        <v>33163</v>
+        <v>18415.173999999999</v>
       </c>
       <c r="I25">
-        <v>7612</v>
+        <v>5537.8289999999997</v>
       </c>
       <c r="J25">
-        <v>4061</v>
+        <v>174.733</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>56.072000000000003</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-1.4059999999999999</v>
       </c>
       <c r="N25">
-        <v>15575</v>
+        <v>8946.8590000000004</v>
       </c>
       <c r="O25">
-        <v>20831</v>
+        <v>9378.7330000000002</v>
       </c>
       <c r="P25">
-        <v>5161</v>
+        <v>570.86099999999999</v>
       </c>
       <c r="Q25">
-        <v>-1505</v>
+        <v>332.16199999999998</v>
       </c>
       <c r="R25">
-        <v>42610</v>
+        <v>39047</v>
       </c>
       <c r="S25">
-        <v>126000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>12332</v>
+        <v>9036.4410000000007</v>
       </c>
       <c r="U25">
-        <v>3379</v>
+        <v>1843.1010000000001</v>
       </c>
       <c r="V25">
-        <v>-169</v>
+        <v>407.49</v>
       </c>
       <c r="W25">
-        <v>-394</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-331</v>
+        <v>-229.23400000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-204</v>
+        <v>557.67899999999997</v>
       </c>
       <c r="AA25">
-        <v>779</v>
+        <v>236.886</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42694</v>
+        <v>39131</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>545</v>
+        <v>249.47800000000001</v>
       </c>
       <c r="D26">
-        <v>28099</v>
+        <v>15336.4</v>
       </c>
       <c r="E26">
-        <v>1498</v>
+        <v>792.23800000000006</v>
       </c>
       <c r="F26">
-        <v>3811</v>
+        <v>1899.8309999999999</v>
       </c>
       <c r="G26">
-        <v>18570</v>
+        <v>8275.7649999999994</v>
       </c>
       <c r="H26">
-        <v>36532</v>
+        <v>17925.221000000001</v>
       </c>
       <c r="I26">
-        <v>11003</v>
+        <v>4961.7470000000003</v>
       </c>
       <c r="J26">
-        <v>3933</v>
+        <v>168.02</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>124.212</v>
       </c>
       <c r="L26">
-        <v>-178</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>19161</v>
+        <v>8664.5</v>
       </c>
       <c r="O26">
-        <v>24301</v>
+        <v>9070.6730000000007</v>
       </c>
       <c r="P26">
-        <v>5092</v>
+        <v>629.13900000000001</v>
       </c>
       <c r="Q26">
-        <v>1426</v>
+        <v>-271.19600000000003</v>
       </c>
       <c r="R26">
-        <v>42694</v>
+        <v>39131</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>12231</v>
+        <v>8854.5480000000007</v>
       </c>
       <c r="U26">
-        <v>4805</v>
+        <v>1571.905</v>
       </c>
       <c r="V26">
-        <v>2793</v>
+        <v>318.42500000000001</v>
       </c>
       <c r="W26">
-        <v>-198</v>
+        <v>-59.357999999999997</v>
       </c>
       <c r="X26">
-        <v>-660</v>
+        <v>-416.798</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>107.43600000000001</v>
       </c>
       <c r="AA26">
-        <v>545</v>
+        <v>249.47800000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42778</v>
+        <v>39215</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>515</v>
+        <v>223.98599999999999</v>
       </c>
       <c r="D27">
-        <v>29766</v>
+        <v>14887.424000000001</v>
       </c>
       <c r="E27">
-        <v>1597</v>
+        <v>621.55399999999997</v>
       </c>
       <c r="F27">
-        <v>3839</v>
+        <v>2009.837</v>
       </c>
       <c r="G27">
-        <v>17460</v>
+        <v>9690.4429999999993</v>
       </c>
       <c r="H27">
-        <v>35630</v>
+        <v>19538.485000000001</v>
       </c>
       <c r="I27">
-        <v>8764</v>
+        <v>5188.8810000000003</v>
       </c>
       <c r="J27">
-        <v>2815</v>
+        <v>2158.8620000000001</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>26.713000000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>18860</v>
+        <v>8586.7540000000008</v>
       </c>
       <c r="O27">
-        <v>22918</v>
+        <v>10989.522999999999</v>
       </c>
       <c r="P27">
-        <v>5072</v>
+        <v>2220.9140000000002</v>
       </c>
       <c r="Q27">
-        <v>-61</v>
+        <v>1589.0309999999999</v>
       </c>
       <c r="R27">
-        <v>42778</v>
+        <v>39215</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>12712</v>
+        <v>8548.9619999999995</v>
       </c>
       <c r="U27">
-        <v>4744</v>
+        <v>3160.9360000000001</v>
       </c>
       <c r="V27">
-        <v>493</v>
+        <v>827.69899999999996</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>-58.277000000000001</v>
       </c>
       <c r="X27">
-        <v>-165</v>
+        <v>985.54100000000005</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>95</v>
+        <v>5.29</v>
       </c>
       <c r="AA27">
-        <v>515</v>
+        <v>223.98599999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42862</v>
+        <v>39327</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>700</v>
+        <v>372.42200000000003</v>
       </c>
       <c r="D28">
-        <v>28860</v>
+        <v>20024.706999999999</v>
       </c>
       <c r="E28">
-        <v>1462</v>
+        <v>540.21299999999997</v>
       </c>
       <c r="F28">
-        <v>3890</v>
+        <v>2093.3020000000001</v>
       </c>
       <c r="G28">
-        <v>17256</v>
+        <v>9324.1530000000002</v>
       </c>
       <c r="H28">
-        <v>35631</v>
+        <v>19606.585999999999</v>
       </c>
       <c r="I28">
-        <v>9425</v>
+        <v>5124.99</v>
       </c>
       <c r="J28">
-        <v>2821</v>
+        <v>2107.9780000000001</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>53.832000000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,247 +3050,247 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>21394</v>
+        <v>8581.7530000000006</v>
       </c>
       <c r="O28">
-        <v>25446</v>
+        <v>10913.928</v>
       </c>
       <c r="P28">
-        <v>3979</v>
+        <v>2221.7150000000001</v>
       </c>
       <c r="Q28">
-        <v>-206</v>
+        <v>-381.20299999999997</v>
       </c>
       <c r="R28">
-        <v>42862</v>
+        <v>39327</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="T28">
-        <v>10185</v>
+        <v>8692.6579999999994</v>
       </c>
       <c r="U28">
-        <v>4538</v>
+        <v>2779.7330000000002</v>
       </c>
       <c r="V28">
-        <v>1606</v>
+        <v>522.79</v>
       </c>
       <c r="W28">
-        <v>-198</v>
+        <v>-128.107</v>
       </c>
       <c r="X28">
-        <v>-1316</v>
+        <v>-504.14100000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>36</v>
+        <v>82.855000000000004</v>
       </c>
       <c r="AA28">
-        <v>700</v>
+        <v>372.42200000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42981</v>
+        <v>39411</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>919</v>
+        <v>262</v>
       </c>
       <c r="D29">
-        <v>42300</v>
+        <v>15810</v>
       </c>
       <c r="E29">
-        <v>1432</v>
+        <v>763.06899999999996</v>
       </c>
       <c r="F29">
-        <v>5603</v>
+        <v>1986</v>
       </c>
       <c r="G29">
-        <v>17317</v>
+        <v>10301.909</v>
       </c>
       <c r="H29">
-        <v>36347</v>
+        <v>21004.069</v>
       </c>
       <c r="I29">
-        <v>9608</v>
+        <v>6168.2510000000002</v>
       </c>
       <c r="J29">
-        <v>6573</v>
+        <v>2182.308</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-713</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="N29">
-        <v>17495</v>
+        <v>9693.7549999999992</v>
       </c>
       <c r="O29">
-        <v>25268</v>
+        <v>12171.181</v>
       </c>
       <c r="P29">
-        <v>6659</v>
+        <v>2219.1060000000002</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>-38</v>
       </c>
       <c r="R29">
-        <v>42981</v>
+        <v>39411</v>
       </c>
       <c r="S29">
-        <v>133000</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>11079</v>
+        <v>8832.8880000000008</v>
       </c>
       <c r="U29">
-        <v>4546</v>
+        <v>2742.3539999999998</v>
       </c>
       <c r="V29">
-        <v>1834</v>
+        <v>271</v>
       </c>
       <c r="W29">
-        <v>-408</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-1077</v>
+        <v>-2</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-39</v>
+        <v>114</v>
       </c>
       <c r="AA29">
-        <v>919</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43065</v>
+        <v>39495</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>640</v>
+        <v>328</v>
       </c>
       <c r="D30">
-        <v>31809</v>
+        <v>16959</v>
       </c>
       <c r="E30">
-        <v>1559</v>
+        <v>815.22</v>
       </c>
       <c r="F30">
-        <v>4192</v>
+        <v>2126</v>
       </c>
       <c r="G30">
-        <v>19897</v>
+        <v>9669.4050000000007</v>
       </c>
       <c r="H30">
-        <v>39378</v>
+        <v>20668.877</v>
       </c>
       <c r="I30">
-        <v>11992</v>
+        <v>5338.1769999999997</v>
       </c>
       <c r="J30">
-        <v>6478</v>
+        <v>2181.9189999999999</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>103.479</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>20360</v>
+        <v>9169.0889999999999</v>
       </c>
       <c r="O30">
-        <v>28022</v>
+        <v>11648.915999999999</v>
       </c>
       <c r="P30">
-        <v>6478</v>
+        <v>2319.8530000000001</v>
       </c>
       <c r="Q30">
-        <v>1143</v>
+        <v>-475</v>
       </c>
       <c r="R30">
-        <v>43065</v>
+        <v>39495</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>11356</v>
+        <v>9019.9609999999993</v>
       </c>
       <c r="U30">
-        <v>5689</v>
+        <v>2267.3809999999999</v>
       </c>
       <c r="V30">
-        <v>2006</v>
+        <v>582</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="X30">
-        <v>-58</v>
+        <v>-182</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>39</v>
+        <v>-365</v>
       </c>
       <c r="AA30">
-        <v>640</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43149</v>
+        <v>39579</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>701</v>
+        <v>295</v>
       </c>
       <c r="D31">
-        <v>32995</v>
+        <v>16614</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>682.57399999999996</v>
       </c>
       <c r="F31">
-        <v>4262</v>
+        <v>2066</v>
       </c>
       <c r="G31">
-        <v>18899</v>
+        <v>10078.466</v>
       </c>
       <c r="H31">
-        <v>38703</v>
+        <v>21203.35</v>
       </c>
       <c r="I31">
-        <v>10061</v>
+        <v>5720.5079999999998</v>
       </c>
       <c r="J31">
-        <v>6505</v>
+        <v>2186.8560000000002</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>62.524999999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>18913</v>
+        <v>9525.5130000000008</v>
       </c>
       <c r="O31">
-        <v>26650</v>
+        <v>12010.723</v>
       </c>
       <c r="P31">
-        <v>6505</v>
+        <v>2284.4290000000001</v>
       </c>
       <c r="Q31">
-        <v>-908</v>
+        <v>582</v>
       </c>
       <c r="R31">
-        <v>43149</v>
+        <v>39579</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>12053</v>
+        <v>9192.6270000000004</v>
       </c>
       <c r="U31">
-        <v>4781</v>
+        <v>2848.6579999999999</v>
       </c>
       <c r="V31">
-        <v>109</v>
+        <v>910</v>
       </c>
       <c r="W31">
-        <v>-220</v>
+        <v>-63</v>
       </c>
       <c r="X31">
-        <v>-690</v>
+        <v>-54</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>142</v>
+        <v>-70</v>
       </c>
       <c r="AA31">
-        <v>701</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43233</v>
+        <v>39691</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>750</v>
+        <v>398</v>
       </c>
       <c r="D32">
-        <v>32361</v>
+        <v>23100</v>
       </c>
       <c r="E32">
-        <v>1593</v>
+        <v>575</v>
       </c>
       <c r="F32">
-        <v>4230</v>
+        <v>2802</v>
       </c>
       <c r="G32">
-        <v>19693</v>
+        <v>9462</v>
       </c>
       <c r="H32">
-        <v>39605</v>
+        <v>20682</v>
       </c>
       <c r="I32">
-        <v>10705</v>
+        <v>5225</v>
       </c>
       <c r="J32">
-        <v>6492</v>
+        <v>2206</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,247 +3382,247 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>19411</v>
+        <v>8874</v>
       </c>
       <c r="O32">
-        <v>27158</v>
+        <v>11408</v>
       </c>
       <c r="P32">
-        <v>6492</v>
+        <v>2346</v>
       </c>
       <c r="Q32">
-        <v>1096</v>
+        <v>-230</v>
       </c>
       <c r="R32">
-        <v>43233</v>
+        <v>39691</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="T32">
-        <v>12447</v>
+        <v>9274</v>
       </c>
       <c r="U32">
-        <v>5877</v>
+        <v>2619</v>
       </c>
       <c r="V32">
-        <v>2105</v>
+        <v>443</v>
       </c>
       <c r="W32">
-        <v>-219</v>
+        <v>-139</v>
       </c>
       <c r="X32">
-        <v>-266</v>
+        <v>-405</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-117</v>
+        <v>169</v>
       </c>
       <c r="AA32">
-        <v>750</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43345</v>
+        <v>39775</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1043</v>
+        <v>263</v>
       </c>
       <c r="D33">
-        <v>44411</v>
+        <v>16395</v>
       </c>
       <c r="E33">
-        <v>1669</v>
+        <v>775</v>
       </c>
       <c r="F33">
-        <v>5740</v>
+        <v>2119</v>
       </c>
       <c r="G33">
-        <v>20289</v>
+        <v>10100</v>
       </c>
       <c r="H33">
-        <v>40830</v>
+        <v>20997</v>
       </c>
       <c r="I33">
-        <v>11237</v>
+        <v>5847</v>
       </c>
       <c r="J33">
-        <v>6487</v>
+        <v>2196</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-1006</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N33">
-        <v>19926</v>
+        <v>9538</v>
       </c>
       <c r="O33">
-        <v>27727</v>
+        <v>12061</v>
       </c>
       <c r="P33">
-        <v>6577</v>
+        <v>2365</v>
       </c>
       <c r="Q33">
-        <v>178</v>
+        <v>-404</v>
       </c>
       <c r="R33">
-        <v>43345</v>
+        <v>39775</v>
       </c>
       <c r="S33">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>13103</v>
+        <v>8936</v>
       </c>
       <c r="U33">
-        <v>6055</v>
+        <v>2215</v>
       </c>
       <c r="V33">
-        <v>1554</v>
+        <v>-15</v>
       </c>
       <c r="W33">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-267</v>
+        <v>-24</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-46</v>
+        <v>74</v>
       </c>
       <c r="AA33">
-        <v>1043</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43429</v>
+        <v>39859</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>767</v>
+        <v>239</v>
       </c>
       <c r="D34">
-        <v>35069</v>
+        <v>16843</v>
       </c>
       <c r="E34">
-        <v>1795</v>
+        <v>880</v>
       </c>
       <c r="F34">
-        <v>4446</v>
+        <v>2072</v>
       </c>
       <c r="G34">
-        <v>22954</v>
+        <v>9691</v>
       </c>
       <c r="H34">
-        <v>43814</v>
+        <v>20737</v>
       </c>
       <c r="I34">
-        <v>13133</v>
+        <v>5000</v>
       </c>
       <c r="J34">
-        <v>6480</v>
+        <v>2198</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>22473</v>
+        <v>8998</v>
       </c>
       <c r="O34">
-        <v>30335</v>
+        <v>11528</v>
       </c>
       <c r="P34">
-        <v>6480</v>
+        <v>2371</v>
       </c>
       <c r="Q34">
-        <v>723</v>
+        <v>490</v>
       </c>
       <c r="R34">
-        <v>43429</v>
+        <v>39859</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>13479</v>
+        <v>9209</v>
       </c>
       <c r="U34">
-        <v>6778</v>
+        <v>2705</v>
       </c>
       <c r="V34">
-        <v>2177</v>
+        <v>865</v>
       </c>
       <c r="W34">
-        <v>-501</v>
+        <v>-69</v>
       </c>
       <c r="X34">
-        <v>-700</v>
+        <v>-127</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AA34">
-        <v>767</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43513</v>
+        <v>39943</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>889</v>
+        <v>210</v>
       </c>
       <c r="D35">
-        <v>35396</v>
+        <v>15806</v>
       </c>
       <c r="E35">
-        <v>1995</v>
+        <v>747</v>
       </c>
       <c r="F35">
-        <v>4676</v>
+        <v>2030</v>
       </c>
       <c r="G35">
-        <v>21648</v>
+        <v>10087</v>
       </c>
       <c r="H35">
-        <v>42799</v>
+        <v>21304</v>
       </c>
       <c r="I35">
-        <v>10711</v>
+        <v>5370</v>
       </c>
       <c r="J35">
-        <v>4794</v>
+        <v>2145</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>22450</v>
+        <v>9259</v>
       </c>
       <c r="O35">
-        <v>28616</v>
+        <v>11740</v>
       </c>
       <c r="P35">
-        <v>6492</v>
+        <v>2237</v>
       </c>
       <c r="Q35">
-        <v>-698</v>
+        <v>378</v>
       </c>
       <c r="R35">
-        <v>43513</v>
+        <v>39943</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>14183</v>
+        <v>9564</v>
       </c>
       <c r="U35">
-        <v>6080</v>
+        <v>3083</v>
       </c>
       <c r="V35">
-        <v>-219</v>
+        <v>693</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="X35">
-        <v>-49</v>
+        <v>-109</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="AA35">
-        <v>889</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43597</v>
+        <v>40055</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>906</v>
+        <v>374</v>
       </c>
       <c r="D36">
-        <v>34740</v>
+        <v>22378</v>
       </c>
       <c r="E36">
-        <v>1704</v>
+        <v>657</v>
       </c>
       <c r="F36">
-        <v>4507</v>
+        <v>2866</v>
       </c>
       <c r="G36">
-        <v>22285</v>
+        <v>10337</v>
       </c>
       <c r="H36">
-        <v>43752</v>
+        <v>21979</v>
       </c>
       <c r="I36">
-        <v>11331</v>
+        <v>5450</v>
       </c>
       <c r="J36">
-        <v>4799</v>
+        <v>2130</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,164 +3714,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>22832</v>
+        <v>9281</v>
       </c>
       <c r="O36">
-        <v>28932</v>
+        <v>11875</v>
       </c>
       <c r="P36">
-        <v>6498</v>
+        <v>2226</v>
       </c>
       <c r="Q36">
-        <v>933</v>
+        <v>74</v>
       </c>
       <c r="R36">
-        <v>43597</v>
+        <v>40055</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>79000</v>
       </c>
       <c r="T36">
-        <v>14820</v>
+        <v>10104</v>
       </c>
       <c r="U36">
-        <v>7013</v>
+        <v>3157</v>
       </c>
       <c r="V36">
-        <v>2105</v>
+        <v>549</v>
       </c>
       <c r="W36">
-        <v>-251</v>
+        <v>-157</v>
       </c>
       <c r="X36">
-        <v>-397</v>
+        <v>-179</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-117</v>
+        <v>34</v>
       </c>
       <c r="AA36">
-        <v>906</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43709</v>
+        <v>40139</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1097</v>
+        <v>266</v>
       </c>
       <c r="D37">
-        <v>47498</v>
+        <v>17299</v>
       </c>
       <c r="E37">
-        <v>1535</v>
+        <v>849</v>
       </c>
       <c r="F37">
-        <v>6188</v>
+        <v>2218</v>
       </c>
       <c r="G37">
-        <v>23485</v>
+        <v>11627</v>
       </c>
       <c r="H37">
-        <v>45400</v>
+        <v>23478</v>
       </c>
       <c r="I37">
-        <v>11679</v>
+        <v>6317</v>
       </c>
       <c r="J37">
-        <v>5124</v>
+        <v>2135</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="N37">
-        <v>23237</v>
+        <v>10285</v>
       </c>
       <c r="O37">
-        <v>29816</v>
+        <v>13047</v>
       </c>
       <c r="P37">
-        <v>7244</v>
+        <v>2215</v>
       </c>
       <c r="Q37">
-        <v>1371</v>
+        <v>460</v>
       </c>
       <c r="R37">
-        <v>43709</v>
+        <v>40139</v>
       </c>
       <c r="S37">
-        <v>149000</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>15584</v>
+        <v>10431</v>
       </c>
       <c r="U37">
-        <v>8384</v>
+        <v>3617</v>
       </c>
       <c r="V37">
-        <v>2293</v>
+        <v>751</v>
       </c>
       <c r="W37">
-        <v>-286</v>
+        <v>-79</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="Y37">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="AA37">
-        <v>1097</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43793</v>
+        <v>40223</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>844</v>
+        <v>299</v>
       </c>
       <c r="D38">
-        <v>37040</v>
+        <v>18742</v>
       </c>
       <c r="E38">
-        <v>1711</v>
+        <v>951</v>
       </c>
       <c r="F38">
-        <v>4807</v>
+        <v>2346</v>
       </c>
       <c r="G38">
-        <v>26643</v>
+        <v>11501</v>
       </c>
       <c r="H38">
-        <v>51431</v>
+        <v>23366</v>
       </c>
       <c r="I38">
-        <v>14440</v>
+        <v>5598</v>
       </c>
       <c r="J38">
-        <v>5107</v>
+        <v>2134</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>26265</v>
+        <v>9865</v>
       </c>
       <c r="O38">
-        <v>35207</v>
+        <v>12623</v>
       </c>
       <c r="P38">
-        <v>9818</v>
+        <v>2305</v>
       </c>
       <c r="Q38">
-        <v>643</v>
+        <v>517</v>
       </c>
       <c r="R38">
-        <v>43793</v>
+        <v>40223</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>16224</v>
+        <v>10743</v>
       </c>
       <c r="U38">
-        <v>9027</v>
+        <v>4134</v>
       </c>
       <c r="V38">
-        <v>2102</v>
+        <v>609</v>
       </c>
       <c r="W38">
-        <v>-573</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-836</v>
+        <v>116</v>
       </c>
       <c r="Y38">
-        <v>2830</v>
+        <v>80</v>
       </c>
       <c r="Z38">
-        <v>76</v>
+        <v>-12</v>
       </c>
       <c r="AA38">
-        <v>844</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43877</v>
+        <v>40307</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>931</v>
+        <v>306</v>
       </c>
       <c r="D39">
-        <v>39072</v>
+        <v>17780</v>
       </c>
       <c r="E39">
-        <v>1988</v>
+        <v>818</v>
       </c>
       <c r="F39">
-        <v>5016</v>
+        <v>2286</v>
       </c>
       <c r="G39">
-        <v>23703</v>
+        <v>12057</v>
       </c>
       <c r="H39">
-        <v>48782</v>
+        <v>23899</v>
       </c>
       <c r="I39">
-        <v>11072</v>
+        <v>5975</v>
       </c>
       <c r="J39">
-        <v>5099</v>
+        <v>2132</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>22695</v>
+        <v>10189</v>
       </c>
       <c r="O39">
-        <v>31783</v>
+        <v>12927</v>
       </c>
       <c r="P39">
-        <v>8775</v>
+        <v>2242</v>
       </c>
       <c r="Q39">
-        <v>-1241</v>
+        <v>279</v>
       </c>
       <c r="R39">
-        <v>43877</v>
+        <v>40307</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>16999</v>
+        <v>10972</v>
       </c>
       <c r="U39">
-        <v>7786</v>
+        <v>4413</v>
       </c>
       <c r="V39">
-        <v>619</v>
+        <v>809</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>-79</v>
       </c>
       <c r="X39">
-        <v>-1392</v>
+        <v>-123</v>
       </c>
       <c r="Y39">
-        <v>2990</v>
+        <v>80</v>
       </c>
       <c r="Z39">
-        <v>65</v>
+        <v>-269</v>
       </c>
       <c r="AA39">
-        <v>931</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43961</v>
+        <v>40419</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>838</v>
+        <v>432</v>
       </c>
       <c r="D40">
-        <v>37266</v>
+        <v>24125</v>
       </c>
       <c r="E40">
-        <v>1507</v>
+        <v>717</v>
       </c>
       <c r="F40">
-        <v>5061</v>
+        <v>3101</v>
       </c>
       <c r="G40">
-        <v>25254</v>
+        <v>11708</v>
       </c>
       <c r="H40">
-        <v>51732</v>
+        <v>23815</v>
       </c>
       <c r="I40">
-        <v>10813</v>
+        <v>5947</v>
       </c>
       <c r="J40">
-        <v>7598</v>
+        <v>2141</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,212 +4046,3532 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>22779</v>
+        <v>10063</v>
       </c>
       <c r="O40">
-        <v>34529</v>
+        <v>12885</v>
       </c>
       <c r="P40">
-        <v>12511</v>
+        <v>2336</v>
       </c>
       <c r="Q40">
-        <v>3040</v>
+        <v>-1199</v>
       </c>
       <c r="R40">
-        <v>43961</v>
+        <v>40419</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="T40">
-        <v>17203</v>
+        <v>10930</v>
       </c>
       <c r="U40">
-        <v>10826</v>
+        <v>3214</v>
       </c>
       <c r="V40">
-        <v>1898</v>
+        <v>611</v>
       </c>
       <c r="W40">
-        <v>-287</v>
+        <v>-180</v>
       </c>
       <c r="X40">
-        <v>2999</v>
+        <v>-707</v>
       </c>
       <c r="Y40">
-        <v>3164</v>
+        <v>169</v>
       </c>
       <c r="Z40">
-        <v>-26</v>
+        <v>-683</v>
       </c>
       <c r="AA40">
-        <v>838</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44073</v>
+        <v>40503</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1389</v>
+        <v>312</v>
       </c>
       <c r="D41">
-        <v>53383</v>
+        <v>19239</v>
       </c>
       <c r="E41">
-        <v>1550</v>
+        <v>985</v>
       </c>
       <c r="F41">
-        <v>7090</v>
+        <v>2482</v>
       </c>
       <c r="G41">
-        <v>28120</v>
+        <v>13558</v>
       </c>
       <c r="H41">
-        <v>55556</v>
+        <v>26043</v>
       </c>
       <c r="I41">
-        <v>14172</v>
+        <v>7205</v>
       </c>
       <c r="J41">
-        <v>7514</v>
+        <v>2143</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>24844</v>
+        <v>11502</v>
       </c>
       <c r="O41">
-        <v>36851</v>
+        <v>14336</v>
       </c>
       <c r="P41">
-        <v>11086</v>
+        <v>2167</v>
       </c>
       <c r="Q41">
-        <v>1451</v>
+        <v>525</v>
       </c>
       <c r="R41">
-        <v>44073</v>
+        <v>40503</v>
       </c>
       <c r="S41">
-        <v>156000</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>18705</v>
+        <v>11707</v>
       </c>
       <c r="U41">
-        <v>12277</v>
+        <v>3739</v>
       </c>
       <c r="V41">
-        <v>4242</v>
+        <v>720</v>
       </c>
       <c r="W41">
-        <v>-619</v>
+        <v>-89</v>
       </c>
       <c r="X41">
-        <v>-1918</v>
+        <v>-87</v>
       </c>
       <c r="Y41">
-        <v>3215</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-63</v>
+        <v>-3</v>
       </c>
       <c r="AA41">
-        <v>1389</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44157</v>
+        <v>40587</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>348</v>
+      </c>
+      <c r="D42">
+        <v>20875</v>
+      </c>
+      <c r="E42">
+        <v>1116</v>
+      </c>
+      <c r="F42">
+        <v>2640</v>
+      </c>
+      <c r="G42">
+        <v>13138</v>
+      </c>
+      <c r="H42">
+        <v>25716</v>
+      </c>
+      <c r="I42">
+        <v>5970</v>
+      </c>
+      <c r="J42">
+        <v>2144</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>10746</v>
+      </c>
+      <c r="O42">
+        <v>13592</v>
+      </c>
+      <c r="P42">
+        <v>2145</v>
+      </c>
+      <c r="Q42">
+        <v>-384</v>
+      </c>
+      <c r="R42">
+        <v>40587</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>12124</v>
+      </c>
+      <c r="U42">
+        <v>3355</v>
+      </c>
+      <c r="V42">
+        <v>726</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-416</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-486</v>
+      </c>
+      <c r="AA42">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40671</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>324</v>
+      </c>
+      <c r="D43">
+        <v>20623</v>
+      </c>
+      <c r="E43">
+        <v>948</v>
+      </c>
+      <c r="F43">
+        <v>2556</v>
+      </c>
+      <c r="G43">
+        <v>14069</v>
+      </c>
+      <c r="H43">
+        <v>26974</v>
+      </c>
+      <c r="I43">
+        <v>6800</v>
+      </c>
+      <c r="J43">
+        <v>1247</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>12494</v>
+      </c>
+      <c r="O43">
+        <v>14433</v>
+      </c>
+      <c r="P43">
+        <v>2148</v>
+      </c>
+      <c r="Q43">
+        <v>727</v>
+      </c>
+      <c r="R43">
+        <v>40671</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>12541</v>
+      </c>
+      <c r="U43">
+        <v>4082</v>
+      </c>
+      <c r="V43">
+        <v>811</v>
+      </c>
+      <c r="W43">
+        <v>-90</v>
+      </c>
+      <c r="X43">
+        <v>241</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-100</v>
+      </c>
+      <c r="AA43">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40783</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>478</v>
+      </c>
+      <c r="D44">
+        <v>28178</v>
+      </c>
+      <c r="E44">
+        <v>804</v>
+      </c>
+      <c r="F44">
+        <v>3498</v>
+      </c>
+      <c r="G44">
+        <v>13706</v>
+      </c>
+      <c r="H44">
+        <v>26761</v>
+      </c>
+      <c r="I44">
+        <v>6544</v>
+      </c>
+      <c r="J44">
+        <v>1253</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>12050</v>
+      </c>
+      <c r="O44">
+        <v>14188</v>
+      </c>
+      <c r="P44">
+        <v>2153</v>
+      </c>
+      <c r="Q44">
+        <v>-73</v>
+      </c>
+      <c r="R44">
+        <v>40783</v>
+      </c>
+      <c r="S44">
+        <v>92000</v>
+      </c>
+      <c r="T44">
+        <v>12573</v>
+      </c>
+      <c r="U44">
+        <v>4009</v>
+      </c>
+      <c r="V44">
+        <v>941</v>
+      </c>
+      <c r="W44">
+        <v>-210</v>
+      </c>
+      <c r="X44">
+        <v>-1015</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>529</v>
+      </c>
+      <c r="AA44">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40867</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>320</v>
+      </c>
+      <c r="D45">
+        <v>21628</v>
+      </c>
+      <c r="E45">
+        <v>982</v>
+      </c>
+      <c r="F45">
+        <v>2697</v>
+      </c>
+      <c r="G45">
+        <v>14993</v>
+      </c>
+      <c r="H45">
+        <v>28004</v>
+      </c>
+      <c r="I45">
+        <v>7576</v>
+      </c>
+      <c r="J45">
+        <v>1330</v>
+      </c>
+      <c r="K45">
+        <v>34</v>
+      </c>
+      <c r="L45">
+        <v>-83</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>13311</v>
+      </c>
+      <c r="O45">
+        <v>15557</v>
+      </c>
+      <c r="P45">
+        <v>2264</v>
+      </c>
+      <c r="Q45">
+        <v>310</v>
+      </c>
+      <c r="R45">
+        <v>40867</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>12447</v>
+      </c>
+      <c r="U45">
+        <v>4319</v>
+      </c>
+      <c r="V45">
+        <v>664</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>67</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-11</v>
+      </c>
+      <c r="AA45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40951</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>394</v>
+      </c>
+      <c r="D46">
+        <v>22967</v>
+      </c>
+      <c r="E46">
+        <v>1092</v>
+      </c>
+      <c r="F46">
+        <v>2828</v>
+      </c>
+      <c r="G46">
+        <v>14360</v>
+      </c>
+      <c r="H46">
+        <v>27511</v>
+      </c>
+      <c r="I46">
+        <v>6334</v>
+      </c>
+      <c r="J46">
+        <v>1380</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>12409</v>
+      </c>
+      <c r="O46">
+        <v>14692</v>
+      </c>
+      <c r="P46">
+        <v>2280</v>
+      </c>
+      <c r="Q46">
+        <v>70</v>
+      </c>
+      <c r="R46">
+        <v>40951</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>12819</v>
+      </c>
+      <c r="U46">
+        <v>4389</v>
+      </c>
+      <c r="V46">
+        <v>580</v>
+      </c>
+      <c r="W46">
+        <v>-105</v>
+      </c>
+      <c r="X46">
+        <v>-459</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>200</v>
+      </c>
+      <c r="AA46">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41035</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>386</v>
+      </c>
+      <c r="D47">
+        <v>22324</v>
+      </c>
+      <c r="E47">
+        <v>1018</v>
+      </c>
+      <c r="F47">
+        <v>2781</v>
+      </c>
+      <c r="G47">
+        <v>14591</v>
+      </c>
+      <c r="H47">
+        <v>27836</v>
+      </c>
+      <c r="I47">
+        <v>7302</v>
+      </c>
+      <c r="J47">
+        <v>1373</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>12366</v>
+      </c>
+      <c r="O47">
+        <v>14653</v>
+      </c>
+      <c r="P47">
+        <v>1373</v>
+      </c>
+      <c r="Q47">
+        <v>402</v>
+      </c>
+      <c r="R47">
+        <v>41035</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>13183</v>
+      </c>
+      <c r="U47">
+        <v>4791</v>
+      </c>
+      <c r="V47">
+        <v>1083</v>
+      </c>
+      <c r="W47">
+        <v>-104</v>
+      </c>
+      <c r="X47">
+        <v>-619</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>204</v>
+      </c>
+      <c r="AA47">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>609</v>
+      </c>
+      <c r="D48">
+        <v>32218</v>
+      </c>
+      <c r="E48">
+        <v>875</v>
+      </c>
+      <c r="F48">
+        <v>4008</v>
+      </c>
+      <c r="G48">
+        <v>13526</v>
+      </c>
+      <c r="H48">
+        <v>27140</v>
+      </c>
+      <c r="I48">
+        <v>7303</v>
+      </c>
+      <c r="J48">
+        <v>1381</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>12260</v>
+      </c>
+      <c r="O48">
+        <v>14622</v>
+      </c>
+      <c r="P48">
+        <v>1381</v>
+      </c>
+      <c r="Q48">
+        <v>-1263</v>
+      </c>
+      <c r="R48">
+        <v>41154</v>
+      </c>
+      <c r="S48">
+        <v>96000</v>
+      </c>
+      <c r="T48">
+        <v>12518</v>
+      </c>
+      <c r="U48">
+        <v>3528</v>
+      </c>
+      <c r="V48">
+        <v>730</v>
+      </c>
+      <c r="W48">
+        <v>-237</v>
+      </c>
+      <c r="X48">
+        <v>-1270</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-138</v>
+      </c>
+      <c r="AA48">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>416</v>
+      </c>
+      <c r="D49">
+        <v>23715</v>
+      </c>
+      <c r="E49">
+        <v>1175</v>
+      </c>
+      <c r="F49">
+        <v>2989</v>
+      </c>
+      <c r="G49">
+        <v>15405</v>
+      </c>
+      <c r="H49">
+        <v>29323</v>
+      </c>
+      <c r="I49">
+        <v>8825</v>
+      </c>
+      <c r="J49">
+        <v>1366</v>
+      </c>
+      <c r="K49">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>-115</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>14135</v>
+      </c>
+      <c r="O49">
+        <v>16491</v>
+      </c>
+      <c r="P49">
+        <v>1379</v>
+      </c>
+      <c r="Q49">
+        <v>369</v>
+      </c>
+      <c r="R49">
+        <v>41238</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>12832</v>
+      </c>
+      <c r="U49">
+        <v>3897</v>
+      </c>
+      <c r="V49">
+        <v>1102</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>121</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-419</v>
+      </c>
+      <c r="AA49">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>547</v>
+      </c>
+      <c r="D50">
+        <v>24871</v>
+      </c>
+      <c r="E50">
+        <v>1300</v>
+      </c>
+      <c r="F50">
+        <v>3105</v>
+      </c>
+      <c r="G50">
+        <v>15110</v>
+      </c>
+      <c r="H50">
+        <v>29089</v>
+      </c>
+      <c r="I50">
+        <v>7441</v>
+      </c>
+      <c r="J50">
+        <v>4806</v>
+      </c>
+      <c r="K50">
+        <v>64</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>13045</v>
+      </c>
+      <c r="O50">
+        <v>18806</v>
+      </c>
+      <c r="P50">
+        <v>4871</v>
+      </c>
+      <c r="Q50">
+        <v>516</v>
+      </c>
+      <c r="R50">
+        <v>41322</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>10283</v>
+      </c>
+      <c r="U50">
+        <v>4413</v>
+      </c>
+      <c r="V50">
+        <v>423</v>
+      </c>
+      <c r="W50">
+        <v>-120</v>
+      </c>
+      <c r="X50">
+        <v>114</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>496</v>
+      </c>
+      <c r="AA50">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41406</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>459</v>
+      </c>
+      <c r="D51">
+        <v>24083</v>
+      </c>
+      <c r="E51">
+        <v>1134</v>
+      </c>
+      <c r="F51">
+        <v>3045</v>
+      </c>
+      <c r="G51">
+        <v>15863</v>
+      </c>
+      <c r="H51">
+        <v>30006</v>
+      </c>
+      <c r="I51">
+        <v>7788</v>
+      </c>
+      <c r="J51">
+        <v>4887</v>
+      </c>
+      <c r="K51">
+        <v>54</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>13509</v>
+      </c>
+      <c r="O51">
+        <v>19359</v>
+      </c>
+      <c r="P51">
+        <v>4941</v>
+      </c>
+      <c r="Q51">
+        <v>1035</v>
+      </c>
+      <c r="R51">
+        <v>41406</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>10647</v>
+      </c>
+      <c r="U51">
+        <v>5448</v>
+      </c>
+      <c r="V51">
+        <v>1349</v>
+      </c>
+      <c r="W51">
+        <v>-120</v>
+      </c>
+      <c r="X51">
+        <v>-19</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>176</v>
+      </c>
+      <c r="AA51">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>617</v>
+      </c>
+      <c r="D52">
+        <v>32487</v>
+      </c>
+      <c r="E52">
+        <v>921</v>
+      </c>
+      <c r="F52">
+        <v>4069</v>
+      </c>
+      <c r="G52">
+        <v>15840</v>
+      </c>
+      <c r="H52">
+        <v>30283</v>
+      </c>
+      <c r="I52">
+        <v>7872</v>
+      </c>
+      <c r="J52">
+        <v>4998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>13257</v>
+      </c>
+      <c r="O52">
+        <v>19271</v>
+      </c>
+      <c r="P52">
+        <v>4998</v>
+      </c>
+      <c r="Q52">
+        <v>-804</v>
+      </c>
+      <c r="R52">
+        <v>41518</v>
+      </c>
+      <c r="S52">
+        <v>103000</v>
+      </c>
+      <c r="T52">
+        <v>11012</v>
+      </c>
+      <c r="U52">
+        <v>4644</v>
+      </c>
+      <c r="V52">
+        <v>563</v>
+      </c>
+      <c r="W52">
+        <v>-271</v>
+      </c>
+      <c r="X52">
+        <v>-172</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-440</v>
+      </c>
+      <c r="AA52">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>425</v>
+      </c>
+      <c r="D53">
+        <v>25017</v>
+      </c>
+      <c r="E53">
+        <v>1145</v>
+      </c>
+      <c r="F53">
+        <v>3193</v>
+      </c>
+      <c r="G53">
+        <v>17473</v>
+      </c>
+      <c r="H53">
+        <v>32319</v>
+      </c>
+      <c r="I53">
+        <v>9199</v>
+      </c>
+      <c r="J53">
+        <v>4987</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>14933</v>
+      </c>
+      <c r="O53">
+        <v>20910</v>
+      </c>
+      <c r="P53">
+        <v>4987</v>
+      </c>
+      <c r="Q53">
+        <v>55</v>
+      </c>
+      <c r="R53">
+        <v>41602</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>11409</v>
+      </c>
+      <c r="U53">
+        <v>4699</v>
+      </c>
+      <c r="V53">
+        <v>939</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-71</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-265</v>
+      </c>
+      <c r="AA53">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41686</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>463</v>
+      </c>
+      <c r="D54">
+        <v>26306</v>
+      </c>
+      <c r="E54">
+        <v>1244</v>
+      </c>
+      <c r="F54">
+        <v>3263</v>
+      </c>
+      <c r="G54">
+        <v>16634</v>
+      </c>
+      <c r="H54">
+        <v>31566</v>
+      </c>
+      <c r="I54">
+        <v>7707</v>
+      </c>
+      <c r="J54">
+        <v>4985</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>13884</v>
+      </c>
+      <c r="O54">
+        <v>19857</v>
+      </c>
+      <c r="P54">
+        <v>4985</v>
+      </c>
+      <c r="Q54">
+        <v>431</v>
+      </c>
+      <c r="R54">
+        <v>41686</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>11709</v>
+      </c>
+      <c r="U54">
+        <v>5130</v>
+      </c>
+      <c r="V54">
+        <v>713</v>
+      </c>
+      <c r="W54">
+        <v>-137</v>
+      </c>
+      <c r="X54">
+        <v>-153</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>396</v>
+      </c>
+      <c r="AA54">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41770</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>473</v>
+      </c>
+      <c r="D55">
+        <v>25794</v>
+      </c>
+      <c r="E55">
+        <v>1115</v>
+      </c>
+      <c r="F55">
+        <v>3240</v>
+      </c>
+      <c r="G55">
+        <v>17533</v>
+      </c>
+      <c r="H55">
+        <v>32701</v>
+      </c>
+      <c r="I55">
+        <v>8361</v>
+      </c>
+      <c r="J55">
+        <v>4985</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>14687</v>
+      </c>
+      <c r="O55">
+        <v>20680</v>
+      </c>
+      <c r="P55">
+        <v>4985</v>
+      </c>
+      <c r="Q55">
+        <v>606</v>
+      </c>
+      <c r="R55">
+        <v>41770</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>12021</v>
+      </c>
+      <c r="U55">
+        <v>5736</v>
+      </c>
+      <c r="V55">
+        <v>1490</v>
+      </c>
+      <c r="W55">
+        <v>-136</v>
+      </c>
+      <c r="X55">
+        <v>-318</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-187</v>
+      </c>
+      <c r="AA55">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>697</v>
+      </c>
+      <c r="D56">
+        <v>35523</v>
+      </c>
+      <c r="E56">
+        <v>1044</v>
+      </c>
+      <c r="F56">
+        <v>4486</v>
+      </c>
+      <c r="G56">
+        <v>17588</v>
+      </c>
+      <c r="H56">
+        <v>33024</v>
+      </c>
+      <c r="I56">
+        <v>8491</v>
+      </c>
+      <c r="J56">
+        <v>5093</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>14412</v>
+      </c>
+      <c r="O56">
+        <v>20509</v>
+      </c>
+      <c r="P56">
+        <v>5093</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>41882</v>
+      </c>
+      <c r="S56">
+        <v>112000</v>
+      </c>
+      <c r="T56">
+        <v>12515</v>
+      </c>
+      <c r="U56">
+        <v>5738</v>
+      </c>
+      <c r="V56">
+        <v>842</v>
+      </c>
+      <c r="W56">
+        <v>-311</v>
+      </c>
+      <c r="X56">
+        <v>-244</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-41</v>
+      </c>
+      <c r="AA56">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>496</v>
+      </c>
+      <c r="D57">
+        <v>26866</v>
+      </c>
+      <c r="E57">
+        <v>1248</v>
+      </c>
+      <c r="F57">
+        <v>3481</v>
+      </c>
+      <c r="G57">
+        <v>19156</v>
+      </c>
+      <c r="H57">
+        <v>34613</v>
+      </c>
+      <c r="I57">
+        <v>9783</v>
+      </c>
+      <c r="J57">
+        <v>5034</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>-21</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>16019</v>
+      </c>
+      <c r="O57">
+        <v>22043</v>
+      </c>
+      <c r="P57">
+        <v>5034</v>
+      </c>
+      <c r="Q57">
+        <v>231</v>
+      </c>
+      <c r="R57">
+        <v>41966</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>12570</v>
+      </c>
+      <c r="U57">
+        <v>5969</v>
+      </c>
+      <c r="V57">
+        <v>1128</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-108</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-84</v>
+      </c>
+      <c r="AA57">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42050</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>598</v>
+      </c>
+      <c r="D58">
+        <v>27454</v>
+      </c>
+      <c r="E58">
+        <v>1287</v>
+      </c>
+      <c r="F58">
+        <v>3557</v>
+      </c>
+      <c r="G58">
+        <v>18058</v>
+      </c>
+      <c r="H58">
+        <v>33600</v>
+      </c>
+      <c r="I58">
+        <v>8302</v>
+      </c>
+      <c r="J58">
+        <v>3830</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>18249</v>
+      </c>
+      <c r="O58">
+        <v>23175</v>
+      </c>
+      <c r="P58">
+        <v>5030</v>
+      </c>
+      <c r="Q58">
+        <v>-103</v>
+      </c>
+      <c r="R58">
+        <v>42050</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>10425</v>
+      </c>
+      <c r="U58">
+        <v>5866</v>
+      </c>
+      <c r="V58">
+        <v>900</v>
+      </c>
+      <c r="W58">
+        <v>-156</v>
+      </c>
+      <c r="X58">
+        <v>-265</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>64</v>
+      </c>
+      <c r="AA58">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>516</v>
+      </c>
+      <c r="D59">
+        <v>26101</v>
+      </c>
+      <c r="E59">
+        <v>1195</v>
+      </c>
+      <c r="F59">
+        <v>3414</v>
+      </c>
+      <c r="G59">
+        <v>17634</v>
+      </c>
+      <c r="H59">
+        <v>33491</v>
+      </c>
+      <c r="I59">
+        <v>8895</v>
+      </c>
+      <c r="J59">
+        <v>4826</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>16736</v>
+      </c>
+      <c r="O59">
+        <v>22677</v>
+      </c>
+      <c r="P59">
+        <v>6026</v>
+      </c>
+      <c r="Q59">
+        <v>-803</v>
+      </c>
+      <c r="R59">
+        <v>42134</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>10814</v>
+      </c>
+      <c r="U59">
+        <v>5063</v>
+      </c>
+      <c r="V59">
+        <v>1229</v>
+      </c>
+      <c r="W59">
+        <v>-157</v>
+      </c>
+      <c r="X59">
+        <v>-1470</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-153</v>
+      </c>
+      <c r="AA59">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42246</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>767</v>
+      </c>
+      <c r="D60">
+        <v>35778</v>
+      </c>
+      <c r="E60">
+        <v>1105</v>
+      </c>
+      <c r="F60">
+        <v>4682</v>
+      </c>
+      <c r="G60">
+        <v>16779</v>
+      </c>
+      <c r="H60">
+        <v>33017</v>
+      </c>
+      <c r="I60">
+        <v>9011</v>
+      </c>
+      <c r="J60">
+        <v>4852</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>16539</v>
+      </c>
+      <c r="O60">
+        <v>22174</v>
+      </c>
+      <c r="P60">
+        <v>6135</v>
+      </c>
+      <c r="Q60">
+        <v>-262</v>
+      </c>
+      <c r="R60">
+        <v>42246</v>
+      </c>
+      <c r="S60">
+        <v>117000</v>
+      </c>
+      <c r="T60">
+        <v>10843</v>
+      </c>
+      <c r="U60">
+        <v>4801</v>
+      </c>
+      <c r="V60">
+        <v>1028</v>
+      </c>
+      <c r="W60">
+        <v>-351</v>
+      </c>
+      <c r="X60">
+        <v>-481</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>106</v>
+      </c>
+      <c r="AA60">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>480</v>
+      </c>
+      <c r="D61">
+        <v>27220</v>
+      </c>
+      <c r="E61">
+        <v>1359</v>
+      </c>
+      <c r="F61">
+        <v>3599</v>
+      </c>
+      <c r="G61">
+        <v>18858</v>
+      </c>
+      <c r="H61">
+        <v>35451</v>
+      </c>
+      <c r="I61">
+        <v>10378</v>
+      </c>
+      <c r="J61">
+        <v>4845</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>-20</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>18293</v>
+      </c>
+      <c r="O61">
+        <v>24371</v>
+      </c>
+      <c r="P61">
+        <v>6126</v>
+      </c>
+      <c r="Q61">
+        <v>253</v>
+      </c>
+      <c r="R61">
+        <v>42330</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>11080</v>
+      </c>
+      <c r="U61">
+        <v>5054</v>
+      </c>
+      <c r="V61">
+        <v>811</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-224</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>387</v>
+      </c>
+      <c r="AA61">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42414</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>546</v>
+      </c>
+      <c r="D62">
+        <v>28170</v>
+      </c>
+      <c r="E62">
+        <v>1453</v>
+      </c>
+      <c r="F62">
+        <v>3701</v>
+      </c>
+      <c r="G62">
+        <v>15529</v>
+      </c>
+      <c r="H62">
+        <v>32388</v>
+      </c>
+      <c r="I62">
+        <v>8222</v>
+      </c>
+      <c r="J62">
+        <v>4886</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>15433</v>
+      </c>
+      <c r="O62">
+        <v>21154</v>
+      </c>
+      <c r="P62">
+        <v>4975</v>
+      </c>
+      <c r="Q62">
+        <v>-1421</v>
+      </c>
+      <c r="R62">
+        <v>42414</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>11234</v>
+      </c>
+      <c r="U62">
+        <v>3633</v>
+      </c>
+      <c r="V62">
+        <v>791</v>
+      </c>
+      <c r="W62">
+        <v>-176</v>
+      </c>
+      <c r="X62">
+        <v>-1563</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42498</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>545</v>
+      </c>
+      <c r="D63">
+        <v>26769</v>
+      </c>
+      <c r="E63">
+        <v>1300</v>
+      </c>
+      <c r="F63">
+        <v>3607</v>
+      </c>
+      <c r="G63">
+        <v>16542</v>
+      </c>
+      <c r="H63">
+        <v>33873</v>
+      </c>
+      <c r="I63">
+        <v>8828</v>
+      </c>
+      <c r="J63">
+        <v>3921</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>16999</v>
+      </c>
+      <c r="O63">
+        <v>22125</v>
+      </c>
+      <c r="P63">
+        <v>5114</v>
+      </c>
+      <c r="Q63">
+        <v>1251</v>
+      </c>
+      <c r="R63">
+        <v>42498</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>11748</v>
+      </c>
+      <c r="U63">
+        <v>4884</v>
+      </c>
+      <c r="V63">
+        <v>1859</v>
+      </c>
+      <c r="W63">
+        <v>-176</v>
+      </c>
+      <c r="X63">
+        <v>-301</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>94</v>
+      </c>
+      <c r="AA63">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42610</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>779</v>
+      </c>
+      <c r="D64">
+        <v>36560</v>
+      </c>
+      <c r="E64">
+        <v>1252</v>
+      </c>
+      <c r="F64">
+        <v>4911</v>
+      </c>
+      <c r="G64">
+        <v>15218</v>
+      </c>
+      <c r="H64">
+        <v>33163</v>
+      </c>
+      <c r="I64">
+        <v>7612</v>
+      </c>
+      <c r="J64">
+        <v>4061</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>15575</v>
+      </c>
+      <c r="O64">
+        <v>20831</v>
+      </c>
+      <c r="P64">
+        <v>5161</v>
+      </c>
+      <c r="Q64">
+        <v>-1505</v>
+      </c>
+      <c r="R64">
+        <v>42610</v>
+      </c>
+      <c r="S64">
+        <v>126000</v>
+      </c>
+      <c r="T64">
+        <v>12332</v>
+      </c>
+      <c r="U64">
+        <v>3379</v>
+      </c>
+      <c r="V64">
+        <v>-169</v>
+      </c>
+      <c r="W64">
+        <v>-394</v>
+      </c>
+      <c r="X64">
+        <v>-331</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-204</v>
+      </c>
+      <c r="AA64">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42694</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>545</v>
+      </c>
+      <c r="D65">
+        <v>28099</v>
+      </c>
+      <c r="E65">
+        <v>1498</v>
+      </c>
+      <c r="F65">
+        <v>3811</v>
+      </c>
+      <c r="G65">
+        <v>18570</v>
+      </c>
+      <c r="H65">
+        <v>36532</v>
+      </c>
+      <c r="I65">
+        <v>11003</v>
+      </c>
+      <c r="J65">
+        <v>3933</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>-178</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>19161</v>
+      </c>
+      <c r="O65">
+        <v>24301</v>
+      </c>
+      <c r="P65">
+        <v>5092</v>
+      </c>
+      <c r="Q65">
+        <v>1426</v>
+      </c>
+      <c r="R65">
+        <v>42694</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>12231</v>
+      </c>
+      <c r="U65">
+        <v>4805</v>
+      </c>
+      <c r="V65">
+        <v>2793</v>
+      </c>
+      <c r="W65">
+        <v>-198</v>
+      </c>
+      <c r="X65">
+        <v>-660</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+      <c r="AA65">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42778</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>515</v>
+      </c>
+      <c r="D66">
+        <v>29766</v>
+      </c>
+      <c r="E66">
+        <v>1597</v>
+      </c>
+      <c r="F66">
+        <v>3839</v>
+      </c>
+      <c r="G66">
+        <v>17460</v>
+      </c>
+      <c r="H66">
+        <v>35630</v>
+      </c>
+      <c r="I66">
+        <v>8764</v>
+      </c>
+      <c r="J66">
+        <v>2815</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>18860</v>
+      </c>
+      <c r="O66">
+        <v>22918</v>
+      </c>
+      <c r="P66">
+        <v>5072</v>
+      </c>
+      <c r="Q66">
+        <v>-61</v>
+      </c>
+      <c r="R66">
+        <v>42778</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>12712</v>
+      </c>
+      <c r="U66">
+        <v>4744</v>
+      </c>
+      <c r="V66">
+        <v>493</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-165</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>95</v>
+      </c>
+      <c r="AA66">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42862</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>700</v>
+      </c>
+      <c r="D67">
+        <v>28860</v>
+      </c>
+      <c r="E67">
+        <v>1462</v>
+      </c>
+      <c r="F67">
+        <v>3890</v>
+      </c>
+      <c r="G67">
+        <v>17256</v>
+      </c>
+      <c r="H67">
+        <v>35631</v>
+      </c>
+      <c r="I67">
+        <v>9425</v>
+      </c>
+      <c r="J67">
+        <v>2821</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>21394</v>
+      </c>
+      <c r="O67">
+        <v>25446</v>
+      </c>
+      <c r="P67">
+        <v>3979</v>
+      </c>
+      <c r="Q67">
+        <v>-206</v>
+      </c>
+      <c r="R67">
+        <v>42862</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>10185</v>
+      </c>
+      <c r="U67">
+        <v>4538</v>
+      </c>
+      <c r="V67">
+        <v>1606</v>
+      </c>
+      <c r="W67">
+        <v>-198</v>
+      </c>
+      <c r="X67">
+        <v>-1316</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>36</v>
+      </c>
+      <c r="AA67">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42981</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>919</v>
+      </c>
+      <c r="D68">
+        <v>42300</v>
+      </c>
+      <c r="E68">
+        <v>1432</v>
+      </c>
+      <c r="F68">
+        <v>5603</v>
+      </c>
+      <c r="G68">
+        <v>17317</v>
+      </c>
+      <c r="H68">
+        <v>36347</v>
+      </c>
+      <c r="I68">
+        <v>9608</v>
+      </c>
+      <c r="J68">
+        <v>6573</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>17495</v>
+      </c>
+      <c r="O68">
+        <v>25268</v>
+      </c>
+      <c r="P68">
+        <v>6659</v>
+      </c>
+      <c r="Q68">
+        <v>8</v>
+      </c>
+      <c r="R68">
+        <v>42981</v>
+      </c>
+      <c r="S68">
+        <v>133000</v>
+      </c>
+      <c r="T68">
+        <v>11079</v>
+      </c>
+      <c r="U68">
+        <v>4546</v>
+      </c>
+      <c r="V68">
+        <v>1834</v>
+      </c>
+      <c r="W68">
+        <v>-408</v>
+      </c>
+      <c r="X68">
+        <v>-1077</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-39</v>
+      </c>
+      <c r="AA68">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43065</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>640</v>
+      </c>
+      <c r="D69">
+        <v>31809</v>
+      </c>
+      <c r="E69">
+        <v>1559</v>
+      </c>
+      <c r="F69">
+        <v>4192</v>
+      </c>
+      <c r="G69">
+        <v>19897</v>
+      </c>
+      <c r="H69">
+        <v>39378</v>
+      </c>
+      <c r="I69">
+        <v>11992</v>
+      </c>
+      <c r="J69">
+        <v>6478</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-58</v>
+      </c>
+      <c r="N69">
+        <v>20360</v>
+      </c>
+      <c r="O69">
+        <v>28022</v>
+      </c>
+      <c r="P69">
+        <v>6478</v>
+      </c>
+      <c r="Q69">
+        <v>1143</v>
+      </c>
+      <c r="R69">
+        <v>43065</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>11356</v>
+      </c>
+      <c r="U69">
+        <v>5689</v>
+      </c>
+      <c r="V69">
+        <v>2006</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-58</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>39</v>
+      </c>
+      <c r="AA69">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>701</v>
+      </c>
+      <c r="D70">
+        <v>32995</v>
+      </c>
+      <c r="E70">
+        <v>2001</v>
+      </c>
+      <c r="F70">
+        <v>4262</v>
+      </c>
+      <c r="G70">
+        <v>18899</v>
+      </c>
+      <c r="H70">
+        <v>38703</v>
+      </c>
+      <c r="I70">
+        <v>10061</v>
+      </c>
+      <c r="J70">
+        <v>6505</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>18913</v>
+      </c>
+      <c r="O70">
+        <v>26650</v>
+      </c>
+      <c r="P70">
+        <v>6505</v>
+      </c>
+      <c r="Q70">
+        <v>-908</v>
+      </c>
+      <c r="R70">
+        <v>43149</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>12053</v>
+      </c>
+      <c r="U70">
+        <v>4781</v>
+      </c>
+      <c r="V70">
+        <v>109</v>
+      </c>
+      <c r="W70">
+        <v>-220</v>
+      </c>
+      <c r="X70">
+        <v>-690</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>142</v>
+      </c>
+      <c r="AA70">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>750</v>
+      </c>
+      <c r="D71">
+        <v>32361</v>
+      </c>
+      <c r="E71">
+        <v>1593</v>
+      </c>
+      <c r="F71">
+        <v>4230</v>
+      </c>
+      <c r="G71">
+        <v>19693</v>
+      </c>
+      <c r="H71">
+        <v>39605</v>
+      </c>
+      <c r="I71">
+        <v>10705</v>
+      </c>
+      <c r="J71">
+        <v>6492</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>19411</v>
+      </c>
+      <c r="O71">
+        <v>27158</v>
+      </c>
+      <c r="P71">
+        <v>6492</v>
+      </c>
+      <c r="Q71">
+        <v>1096</v>
+      </c>
+      <c r="R71">
+        <v>43233</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>12447</v>
+      </c>
+      <c r="U71">
+        <v>5877</v>
+      </c>
+      <c r="V71">
+        <v>2105</v>
+      </c>
+      <c r="W71">
+        <v>-219</v>
+      </c>
+      <c r="X71">
+        <v>-266</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-117</v>
+      </c>
+      <c r="AA71">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1043</v>
+      </c>
+      <c r="D72">
+        <v>44411</v>
+      </c>
+      <c r="E72">
+        <v>1669</v>
+      </c>
+      <c r="F72">
+        <v>5740</v>
+      </c>
+      <c r="G72">
+        <v>20289</v>
+      </c>
+      <c r="H72">
+        <v>40830</v>
+      </c>
+      <c r="I72">
+        <v>11237</v>
+      </c>
+      <c r="J72">
+        <v>6487</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>19926</v>
+      </c>
+      <c r="O72">
+        <v>27727</v>
+      </c>
+      <c r="P72">
+        <v>6577</v>
+      </c>
+      <c r="Q72">
+        <v>178</v>
+      </c>
+      <c r="R72">
+        <v>43345</v>
+      </c>
+      <c r="S72">
+        <v>143000</v>
+      </c>
+      <c r="T72">
+        <v>13103</v>
+      </c>
+      <c r="U72">
+        <v>6055</v>
+      </c>
+      <c r="V72">
+        <v>1554</v>
+      </c>
+      <c r="W72">
+        <v>-250</v>
+      </c>
+      <c r="X72">
+        <v>-267</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-46</v>
+      </c>
+      <c r="AA72">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>767</v>
+      </c>
+      <c r="D73">
+        <v>35069</v>
+      </c>
+      <c r="E73">
+        <v>1795</v>
+      </c>
+      <c r="F73">
+        <v>4446</v>
+      </c>
+      <c r="G73">
+        <v>22954</v>
+      </c>
+      <c r="H73">
+        <v>43814</v>
+      </c>
+      <c r="I73">
+        <v>13133</v>
+      </c>
+      <c r="J73">
+        <v>6480</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-89</v>
+      </c>
+      <c r="N73">
+        <v>22473</v>
+      </c>
+      <c r="O73">
+        <v>30335</v>
+      </c>
+      <c r="P73">
+        <v>6480</v>
+      </c>
+      <c r="Q73">
+        <v>723</v>
+      </c>
+      <c r="R73">
+        <v>43429</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>13479</v>
+      </c>
+      <c r="U73">
+        <v>6778</v>
+      </c>
+      <c r="V73">
+        <v>2177</v>
+      </c>
+      <c r="W73">
+        <v>-501</v>
+      </c>
+      <c r="X73">
+        <v>-700</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>24</v>
+      </c>
+      <c r="AA73">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43513</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>889</v>
+      </c>
+      <c r="D74">
+        <v>35396</v>
+      </c>
+      <c r="E74">
+        <v>1995</v>
+      </c>
+      <c r="F74">
+        <v>4676</v>
+      </c>
+      <c r="G74">
+        <v>21648</v>
+      </c>
+      <c r="H74">
+        <v>42799</v>
+      </c>
+      <c r="I74">
+        <v>10711</v>
+      </c>
+      <c r="J74">
+        <v>4794</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>22450</v>
+      </c>
+      <c r="O74">
+        <v>28616</v>
+      </c>
+      <c r="P74">
+        <v>6492</v>
+      </c>
+      <c r="Q74">
+        <v>-698</v>
+      </c>
+      <c r="R74">
+        <v>43513</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>14183</v>
+      </c>
+      <c r="U74">
+        <v>6080</v>
+      </c>
+      <c r="V74">
+        <v>-219</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-49</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>140</v>
+      </c>
+      <c r="AA74">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>906</v>
+      </c>
+      <c r="D75">
+        <v>34740</v>
+      </c>
+      <c r="E75">
+        <v>1704</v>
+      </c>
+      <c r="F75">
+        <v>4507</v>
+      </c>
+      <c r="G75">
+        <v>22285</v>
+      </c>
+      <c r="H75">
+        <v>43752</v>
+      </c>
+      <c r="I75">
+        <v>11331</v>
+      </c>
+      <c r="J75">
+        <v>4799</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>22832</v>
+      </c>
+      <c r="O75">
+        <v>28932</v>
+      </c>
+      <c r="P75">
+        <v>6498</v>
+      </c>
+      <c r="Q75">
+        <v>933</v>
+      </c>
+      <c r="R75">
+        <v>43597</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>14820</v>
+      </c>
+      <c r="U75">
+        <v>7013</v>
+      </c>
+      <c r="V75">
+        <v>2105</v>
+      </c>
+      <c r="W75">
+        <v>-251</v>
+      </c>
+      <c r="X75">
+        <v>-397</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-117</v>
+      </c>
+      <c r="AA75">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1097</v>
+      </c>
+      <c r="D76">
+        <v>47498</v>
+      </c>
+      <c r="E76">
+        <v>1535</v>
+      </c>
+      <c r="F76">
+        <v>6188</v>
+      </c>
+      <c r="G76">
+        <v>23485</v>
+      </c>
+      <c r="H76">
+        <v>45400</v>
+      </c>
+      <c r="I76">
+        <v>11679</v>
+      </c>
+      <c r="J76">
+        <v>5124</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>23237</v>
+      </c>
+      <c r="O76">
+        <v>29816</v>
+      </c>
+      <c r="P76">
+        <v>7244</v>
+      </c>
+      <c r="Q76">
+        <v>1371</v>
+      </c>
+      <c r="R76">
+        <v>43709</v>
+      </c>
+      <c r="S76">
+        <v>149000</v>
+      </c>
+      <c r="T76">
+        <v>15584</v>
+      </c>
+      <c r="U76">
+        <v>8384</v>
+      </c>
+      <c r="V76">
+        <v>2293</v>
+      </c>
+      <c r="W76">
+        <v>-286</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
+        <v>370</v>
+      </c>
+      <c r="Z76">
+        <v>90</v>
+      </c>
+      <c r="AA76">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>844</v>
+      </c>
+      <c r="D77">
+        <v>37040</v>
+      </c>
+      <c r="E77">
+        <v>1711</v>
+      </c>
+      <c r="F77">
+        <v>4807</v>
+      </c>
+      <c r="G77">
+        <v>26643</v>
+      </c>
+      <c r="H77">
+        <v>51431</v>
+      </c>
+      <c r="I77">
+        <v>14440</v>
+      </c>
+      <c r="J77">
+        <v>5107</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>26265</v>
+      </c>
+      <c r="O77">
+        <v>35207</v>
+      </c>
+      <c r="P77">
+        <v>9818</v>
+      </c>
+      <c r="Q77">
+        <v>643</v>
+      </c>
+      <c r="R77">
+        <v>43793</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>16224</v>
+      </c>
+      <c r="U77">
+        <v>9027</v>
+      </c>
+      <c r="V77">
+        <v>2102</v>
+      </c>
+      <c r="W77">
+        <v>-573</v>
+      </c>
+      <c r="X77">
+        <v>-836</v>
+      </c>
+      <c r="Y77">
+        <v>2830</v>
+      </c>
+      <c r="Z77">
+        <v>76</v>
+      </c>
+      <c r="AA77">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>931</v>
+      </c>
+      <c r="D78">
+        <v>39072</v>
+      </c>
+      <c r="E78">
+        <v>1988</v>
+      </c>
+      <c r="F78">
+        <v>5016</v>
+      </c>
+      <c r="G78">
+        <v>23703</v>
+      </c>
+      <c r="H78">
+        <v>48782</v>
+      </c>
+      <c r="I78">
+        <v>11072</v>
+      </c>
+      <c r="J78">
+        <v>5099</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>22695</v>
+      </c>
+      <c r="O78">
+        <v>31783</v>
+      </c>
+      <c r="P78">
+        <v>8775</v>
+      </c>
+      <c r="Q78">
+        <v>-1241</v>
+      </c>
+      <c r="R78">
+        <v>43877</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>16999</v>
+      </c>
+      <c r="U78">
+        <v>7786</v>
+      </c>
+      <c r="V78">
+        <v>619</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-1392</v>
+      </c>
+      <c r="Y78">
+        <v>2990</v>
+      </c>
+      <c r="Z78">
+        <v>65</v>
+      </c>
+      <c r="AA78">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>838</v>
+      </c>
+      <c r="D79">
+        <v>37266</v>
+      </c>
+      <c r="E79">
+        <v>1507</v>
+      </c>
+      <c r="F79">
+        <v>5061</v>
+      </c>
+      <c r="G79">
+        <v>25254</v>
+      </c>
+      <c r="H79">
+        <v>51732</v>
+      </c>
+      <c r="I79">
+        <v>10813</v>
+      </c>
+      <c r="J79">
+        <v>7598</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>22779</v>
+      </c>
+      <c r="O79">
+        <v>34529</v>
+      </c>
+      <c r="P79">
+        <v>12511</v>
+      </c>
+      <c r="Q79">
+        <v>3040</v>
+      </c>
+      <c r="R79">
+        <v>43961</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>17203</v>
+      </c>
+      <c r="U79">
+        <v>10826</v>
+      </c>
+      <c r="V79">
+        <v>1898</v>
+      </c>
+      <c r="W79">
+        <v>-287</v>
+      </c>
+      <c r="X79">
+        <v>2999</v>
+      </c>
+      <c r="Y79">
+        <v>3164</v>
+      </c>
+      <c r="Z79">
+        <v>-26</v>
+      </c>
+      <c r="AA79">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1389</v>
+      </c>
+      <c r="D80">
+        <v>53383</v>
+      </c>
+      <c r="E80">
+        <v>1550</v>
+      </c>
+      <c r="F80">
+        <v>7090</v>
+      </c>
+      <c r="G80">
+        <v>28120</v>
+      </c>
+      <c r="H80">
+        <v>55556</v>
+      </c>
+      <c r="I80">
+        <v>14172</v>
+      </c>
+      <c r="J80">
+        <v>7514</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>24844</v>
+      </c>
+      <c r="O80">
+        <v>36851</v>
+      </c>
+      <c r="P80">
+        <v>11086</v>
+      </c>
+      <c r="Q80">
+        <v>1451</v>
+      </c>
+      <c r="R80">
+        <v>44073</v>
+      </c>
+      <c r="S80">
+        <v>156000</v>
+      </c>
+      <c r="T80">
+        <v>18705</v>
+      </c>
+      <c r="U80">
+        <v>12277</v>
+      </c>
+      <c r="V80">
+        <v>4242</v>
+      </c>
+      <c r="W80">
+        <v>-619</v>
+      </c>
+      <c r="X80">
+        <v>-1918</v>
+      </c>
+      <c r="Y80">
+        <v>3215</v>
+      </c>
+      <c r="Z80">
+        <v>-63</v>
+      </c>
+      <c r="AA80">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>1166</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>43208</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>1646</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>5750</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>32096</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>60217</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>17014</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>7529</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>32667</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>44908</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>10199</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>1313</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44157</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>15309</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>13590</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>2647</v>
       </c>
-      <c r="W42">
+      <c r="W81">
         <v>-310</v>
       </c>
-      <c r="X42">
+      <c r="X81">
         <v>-700</v>
       </c>
-      <c r="Y42">
+      <c r="Y81">
         <v>2574</v>
       </c>
-      <c r="Z42">
+      <c r="Z81">
         <v>211</v>
       </c>
-      <c r="AA42">
+      <c r="AA81">
         <v>1166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>951</v>
+      </c>
+      <c r="D82">
+        <v>44769</v>
+      </c>
+      <c r="E82">
+        <v>1934</v>
+      </c>
+      <c r="F82">
+        <v>5691</v>
+      </c>
+      <c r="G82">
+        <v>26308</v>
+      </c>
+      <c r="H82">
+        <v>54918</v>
+      </c>
+      <c r="I82">
+        <v>14383</v>
+      </c>
+      <c r="J82">
+        <v>7522</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>26564</v>
+      </c>
+      <c r="O82">
+        <v>38789</v>
+      </c>
+      <c r="P82">
+        <v>10268</v>
+      </c>
+      <c r="Q82">
+        <v>-4953</v>
+      </c>
+      <c r="R82">
+        <v>44241</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>16129</v>
+      </c>
+      <c r="U82">
+        <v>8637</v>
+      </c>
+      <c r="V82">
+        <v>38</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-4650</v>
+      </c>
+      <c r="Y82">
+        <v>2651</v>
+      </c>
+      <c r="Z82">
+        <v>228</v>
+      </c>
+      <c r="AA82">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
